--- a/Second_integration.xlsx
+++ b/Second_integration.xlsx
@@ -8,12 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3BE2C6-E9C8-45B5-A7D8-BCD351B7D8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2A258-33C1-4F00-BD08-12211AFC7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="12" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
   </bookViews>
   <sheets>
     <sheet name="SPMEn57" sheetId="1" r:id="rId1"/>
+    <sheet name="SPMEn58" sheetId="2" r:id="rId2"/>
+    <sheet name="SPMEn59" sheetId="3" r:id="rId3"/>
+    <sheet name="SPMEn60" sheetId="4" r:id="rId4"/>
+    <sheet name="SPMEn61" sheetId="5" r:id="rId5"/>
+    <sheet name="SPMEn62" sheetId="6" r:id="rId6"/>
+    <sheet name="SPMEn63" sheetId="7" r:id="rId7"/>
+    <sheet name="SPMEn75" sheetId="8" r:id="rId8"/>
+    <sheet name="SPMEn76" sheetId="9" r:id="rId9"/>
+    <sheet name="SPMEn77" sheetId="10" r:id="rId10"/>
+    <sheet name="SPMEn78" sheetId="11" r:id="rId11"/>
+    <sheet name="SPMEn79" sheetId="12" r:id="rId12"/>
+    <sheet name="SPMEn80" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +45,146 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
+  <si>
+    <t>PEAK LIST</t>
+  </si>
+  <si>
+    <t>SPMEn57.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.72 - 23.02</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 15</t>
+  </si>
+  <si>
+    <t>Apex RT</t>
+  </si>
+  <si>
+    <t>Start RT</t>
+  </si>
+  <si>
+    <t>End RT</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>%Area</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>%Height</t>
+  </si>
+  <si>
+    <t>SPMEn58.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.68 - 25.30</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 4</t>
+  </si>
+  <si>
+    <t>SPMEn59.RAW</t>
+  </si>
+  <si>
+    <t>RT: 16.80 - 23.11</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 11</t>
+  </si>
+  <si>
+    <t>SPMEn60.RAW</t>
+  </si>
+  <si>
+    <t>RT: 19.65 - 24.86</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 12</t>
+  </si>
+  <si>
+    <t>SPMEn61.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.10 - 25.73</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 8</t>
+  </si>
+  <si>
+    <t>SPMEn62.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.80 - 27.32</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 3</t>
+  </si>
+  <si>
+    <t>SPMEn63.RAW</t>
+  </si>
+  <si>
+    <t>RT: 21.04 - 24.72</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 2</t>
+  </si>
+  <si>
+    <t>SPMEn75.RAW</t>
+  </si>
+  <si>
+    <t>RT: 21.52 - 24.04</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 33</t>
+  </si>
+  <si>
+    <t>SPMEn76.RAW</t>
+  </si>
+  <si>
+    <t>RT: 19.86 - 23.12</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 22</t>
+  </si>
+  <si>
+    <t>SPMEn77.RAW</t>
+  </si>
+  <si>
+    <t>RT: 19.73 - 25.07</t>
+  </si>
+  <si>
+    <t>SPMEn78.RAW</t>
+  </si>
+  <si>
+    <t>RT: 21.54 - 24.98</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 16</t>
+  </si>
+  <si>
+    <t>SPMEn79.RAW</t>
+  </si>
+  <si>
+    <t>RT: 19.39 - 25.89</t>
+  </si>
+  <si>
+    <t>SPMEn80.RAW</t>
+  </si>
+  <si>
+    <t>RT: 19.69 - 25.82</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 32</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,14 +534,5720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67280306-C49C-4143-BBE2-E1A88C6EA234}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.33</v>
+      </c>
+      <c r="C6">
+        <v>7.26</v>
+      </c>
+      <c r="D6">
+        <v>7.51</v>
+      </c>
+      <c r="E6">
+        <v>16030580.401000001</v>
+      </c>
+      <c r="F6">
+        <v>20.54</v>
+      </c>
+      <c r="G6">
+        <v>2407586.2710000002</v>
+      </c>
+      <c r="H6">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.27</v>
+      </c>
+      <c r="C7">
+        <v>8.25</v>
+      </c>
+      <c r="D7">
+        <v>8.31</v>
+      </c>
+      <c r="E7">
+        <v>301260.87599999999</v>
+      </c>
+      <c r="F7">
+        <v>0.39</v>
+      </c>
+      <c r="G7">
+        <v>122893.303</v>
+      </c>
+      <c r="H7">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>10.57</v>
+      </c>
+      <c r="C8">
+        <v>10.54</v>
+      </c>
+      <c r="D8">
+        <v>10.59</v>
+      </c>
+      <c r="E8">
+        <v>303422.78600000002</v>
+      </c>
+      <c r="F8">
+        <v>0.39</v>
+      </c>
+      <c r="G8">
+        <v>181914.95699999999</v>
+      </c>
+      <c r="H8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10.71</v>
+      </c>
+      <c r="C9">
+        <v>10.63</v>
+      </c>
+      <c r="D9">
+        <v>10.76</v>
+      </c>
+      <c r="E9">
+        <v>4640417.2350000003</v>
+      </c>
+      <c r="F9">
+        <v>5.94</v>
+      </c>
+      <c r="G9">
+        <v>1628724.1410000001</v>
+      </c>
+      <c r="H9">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11.05</v>
+      </c>
+      <c r="C10">
+        <v>11.01</v>
+      </c>
+      <c r="D10">
+        <v>11.08</v>
+      </c>
+      <c r="E10">
+        <v>534482.78099999996</v>
+      </c>
+      <c r="F10">
+        <v>0.68</v>
+      </c>
+      <c r="G10">
+        <v>172236.70600000001</v>
+      </c>
+      <c r="H10">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>11.4</v>
+      </c>
+      <c r="C11">
+        <v>11.36</v>
+      </c>
+      <c r="D11">
+        <v>11.43</v>
+      </c>
+      <c r="E11">
+        <v>931338.25199999998</v>
+      </c>
+      <c r="F11">
+        <v>1.19</v>
+      </c>
+      <c r="G11">
+        <v>463790.13400000002</v>
+      </c>
+      <c r="H11">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>12.07</v>
+      </c>
+      <c r="C12">
+        <v>12.03</v>
+      </c>
+      <c r="D12">
+        <v>12.13</v>
+      </c>
+      <c r="E12">
+        <v>2500674.9980000001</v>
+      </c>
+      <c r="F12">
+        <v>3.2</v>
+      </c>
+      <c r="G12">
+        <v>1231252.1170000001</v>
+      </c>
+      <c r="H12">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>12.23</v>
+      </c>
+      <c r="C13">
+        <v>12.17</v>
+      </c>
+      <c r="D13">
+        <v>12.26</v>
+      </c>
+      <c r="E13">
+        <v>4473888.0710000005</v>
+      </c>
+      <c r="F13">
+        <v>5.73</v>
+      </c>
+      <c r="G13">
+        <v>2070897.1740000001</v>
+      </c>
+      <c r="H13">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13.08</v>
+      </c>
+      <c r="C14">
+        <v>13.05</v>
+      </c>
+      <c r="D14">
+        <v>13.11</v>
+      </c>
+      <c r="E14">
+        <v>578925.00100000005</v>
+      </c>
+      <c r="F14">
+        <v>0.74</v>
+      </c>
+      <c r="G14">
+        <v>338504.91899999999</v>
+      </c>
+      <c r="H14">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>13.27</v>
+      </c>
+      <c r="C15">
+        <v>13.25</v>
+      </c>
+      <c r="D15">
+        <v>13.31</v>
+      </c>
+      <c r="E15">
+        <v>448831.65100000001</v>
+      </c>
+      <c r="F15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G15">
+        <v>223743.29</v>
+      </c>
+      <c r="H15">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>13.53</v>
+      </c>
+      <c r="C16">
+        <v>13.48</v>
+      </c>
+      <c r="D16">
+        <v>13.57</v>
+      </c>
+      <c r="E16">
+        <v>1312004.102</v>
+      </c>
+      <c r="F16">
+        <v>1.68</v>
+      </c>
+      <c r="G16">
+        <v>439474.09100000001</v>
+      </c>
+      <c r="H16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>13.66</v>
+      </c>
+      <c r="C17">
+        <v>13.62</v>
+      </c>
+      <c r="D17">
+        <v>13.73</v>
+      </c>
+      <c r="E17">
+        <v>845354.4</v>
+      </c>
+      <c r="F17">
+        <v>1.08</v>
+      </c>
+      <c r="G17">
+        <v>247563.44500000001</v>
+      </c>
+      <c r="H17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>13.82</v>
+      </c>
+      <c r="C18">
+        <v>13.77</v>
+      </c>
+      <c r="D18">
+        <v>13.86</v>
+      </c>
+      <c r="E18">
+        <v>43937509.313000001</v>
+      </c>
+      <c r="F18">
+        <v>56.28</v>
+      </c>
+      <c r="G18">
+        <v>26668492.908</v>
+      </c>
+      <c r="H18">
+        <v>72.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C19">
+        <v>17.75</v>
+      </c>
+      <c r="D19">
+        <v>17.78</v>
+      </c>
+      <c r="E19">
+        <v>124300.458</v>
+      </c>
+      <c r="F19">
+        <v>0.16</v>
+      </c>
+      <c r="G19">
+        <v>123884.24</v>
+      </c>
+      <c r="H19">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>20.92</v>
+      </c>
+      <c r="C20">
+        <v>20.9</v>
+      </c>
+      <c r="D20">
+        <v>20.97</v>
+      </c>
+      <c r="E20">
+        <v>1101142.9890000001</v>
+      </c>
+      <c r="F20">
+        <v>1.41</v>
+      </c>
+      <c r="G20">
+        <v>546682.39399999997</v>
+      </c>
+      <c r="H20">
+        <v>1.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B9F2F7-E16B-42F5-B95B-0F8FC74D67CC}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5.97</v>
+      </c>
+      <c r="C6">
+        <v>5.96</v>
+      </c>
+      <c r="D6">
+        <v>5.98</v>
+      </c>
+      <c r="E6">
+        <v>68831.513999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>71488.524000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7.07</v>
+      </c>
+      <c r="C7">
+        <v>6.99</v>
+      </c>
+      <c r="D7">
+        <v>7.21</v>
+      </c>
+      <c r="E7">
+        <v>8465921.1270000003</v>
+      </c>
+      <c r="F7">
+        <v>1.75</v>
+      </c>
+      <c r="G7">
+        <v>1347315.9040000001</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7.32</v>
+      </c>
+      <c r="C8">
+        <v>7.25</v>
+      </c>
+      <c r="D8">
+        <v>7.5</v>
+      </c>
+      <c r="E8">
+        <v>68495626.327999994</v>
+      </c>
+      <c r="F8">
+        <v>14.15</v>
+      </c>
+      <c r="G8">
+        <v>10747468.343</v>
+      </c>
+      <c r="H8">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C9">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D9">
+        <v>8.31</v>
+      </c>
+      <c r="E9">
+        <v>4609542.82</v>
+      </c>
+      <c r="F9">
+        <v>0.95</v>
+      </c>
+      <c r="G9">
+        <v>1849290.2579999999</v>
+      </c>
+      <c r="H9">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C10">
+        <v>9.17</v>
+      </c>
+      <c r="D10">
+        <v>9.26</v>
+      </c>
+      <c r="E10">
+        <v>521814.04300000001</v>
+      </c>
+      <c r="F10">
+        <v>0.11</v>
+      </c>
+      <c r="G10">
+        <v>192740.93299999999</v>
+      </c>
+      <c r="H10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>10.54</v>
+      </c>
+      <c r="C11">
+        <v>10.51</v>
+      </c>
+      <c r="D11">
+        <v>10.57</v>
+      </c>
+      <c r="E11">
+        <v>392949.62699999998</v>
+      </c>
+      <c r="F11">
+        <v>0.08</v>
+      </c>
+      <c r="G11">
+        <v>139153.72700000001</v>
+      </c>
+      <c r="H11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10.9</v>
+      </c>
+      <c r="C12">
+        <v>10.88</v>
+      </c>
+      <c r="D12">
+        <v>10.92</v>
+      </c>
+      <c r="E12">
+        <v>260015.274</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>181777.321</v>
+      </c>
+      <c r="H12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11.01</v>
+      </c>
+      <c r="C13">
+        <v>10.99</v>
+      </c>
+      <c r="D13">
+        <v>11.05</v>
+      </c>
+      <c r="E13">
+        <v>624232.10900000005</v>
+      </c>
+      <c r="F13">
+        <v>0.13</v>
+      </c>
+      <c r="G13">
+        <v>299797.63299999997</v>
+      </c>
+      <c r="H13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11.39</v>
+      </c>
+      <c r="C14">
+        <v>11.35</v>
+      </c>
+      <c r="D14">
+        <v>11.42</v>
+      </c>
+      <c r="E14">
+        <v>16393142.414999999</v>
+      </c>
+      <c r="F14">
+        <v>3.39</v>
+      </c>
+      <c r="G14">
+        <v>9273144</v>
+      </c>
+      <c r="H14">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12.07</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12.12</v>
+      </c>
+      <c r="E15">
+        <v>147539748.94600001</v>
+      </c>
+      <c r="F15">
+        <v>30.48</v>
+      </c>
+      <c r="G15">
+        <v>71421463.280000001</v>
+      </c>
+      <c r="H15">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12.22</v>
+      </c>
+      <c r="C16">
+        <v>12.17</v>
+      </c>
+      <c r="D16">
+        <v>12.25</v>
+      </c>
+      <c r="E16">
+        <v>65512472.949000001</v>
+      </c>
+      <c r="F16">
+        <v>13.54</v>
+      </c>
+      <c r="G16">
+        <v>32220630.386999998</v>
+      </c>
+      <c r="H16">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>12.9</v>
+      </c>
+      <c r="C17">
+        <v>12.86</v>
+      </c>
+      <c r="D17">
+        <v>12.94</v>
+      </c>
+      <c r="E17">
+        <v>33943191.527999997</v>
+      </c>
+      <c r="F17">
+        <v>7.01</v>
+      </c>
+      <c r="G17">
+        <v>21853070.842</v>
+      </c>
+      <c r="H17">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>13.06</v>
+      </c>
+      <c r="C18">
+        <v>13.02</v>
+      </c>
+      <c r="D18">
+        <v>13.09</v>
+      </c>
+      <c r="E18">
+        <v>6647598.0870000003</v>
+      </c>
+      <c r="F18">
+        <v>1.37</v>
+      </c>
+      <c r="G18">
+        <v>3852781.625</v>
+      </c>
+      <c r="H18">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>13.26</v>
+      </c>
+      <c r="C19">
+        <v>13.23</v>
+      </c>
+      <c r="D19">
+        <v>13.31</v>
+      </c>
+      <c r="E19">
+        <v>36759263.234999999</v>
+      </c>
+      <c r="F19">
+        <v>7.6</v>
+      </c>
+      <c r="G19">
+        <v>21043514.807</v>
+      </c>
+      <c r="H19">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>13.53</v>
+      </c>
+      <c r="C20">
+        <v>13.48</v>
+      </c>
+      <c r="D20">
+        <v>13.56</v>
+      </c>
+      <c r="E20">
+        <v>7610441.6399999997</v>
+      </c>
+      <c r="F20">
+        <v>1.57</v>
+      </c>
+      <c r="G20">
+        <v>3810194.3020000001</v>
+      </c>
+      <c r="H20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>13.59</v>
+      </c>
+      <c r="C21">
+        <v>13.57</v>
+      </c>
+      <c r="D21">
+        <v>13.6</v>
+      </c>
+      <c r="E21">
+        <v>500465.66600000003</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>597193.47499999998</v>
+      </c>
+      <c r="H21">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>13.65</v>
+      </c>
+      <c r="C22">
+        <v>13.61</v>
+      </c>
+      <c r="D22">
+        <v>13.73</v>
+      </c>
+      <c r="E22">
+        <v>68321183.775999993</v>
+      </c>
+      <c r="F22">
+        <v>14.12</v>
+      </c>
+      <c r="G22">
+        <v>34064905.829999998</v>
+      </c>
+      <c r="H22">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>13.85</v>
+      </c>
+      <c r="C23">
+        <v>13.82</v>
+      </c>
+      <c r="D23">
+        <v>13.89</v>
+      </c>
+      <c r="E23">
+        <v>12917647.876</v>
+      </c>
+      <c r="F23">
+        <v>2.67</v>
+      </c>
+      <c r="G23">
+        <v>8767303.5759999994</v>
+      </c>
+      <c r="H23">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>15.51</v>
+      </c>
+      <c r="C24">
+        <v>15.49</v>
+      </c>
+      <c r="D24">
+        <v>15.55</v>
+      </c>
+      <c r="E24">
+        <v>253676.53700000001</v>
+      </c>
+      <c r="F24">
+        <v>0.05</v>
+      </c>
+      <c r="G24">
+        <v>130148.898</v>
+      </c>
+      <c r="H24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>16.5</v>
+      </c>
+      <c r="C25">
+        <v>16.46</v>
+      </c>
+      <c r="D25">
+        <v>16.53</v>
+      </c>
+      <c r="E25">
+        <v>2907551.98</v>
+      </c>
+      <c r="F25">
+        <v>0.6</v>
+      </c>
+      <c r="G25">
+        <v>1640526.8230000001</v>
+      </c>
+      <c r="H25">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>17.75</v>
+      </c>
+      <c r="C26">
+        <v>17.72</v>
+      </c>
+      <c r="D26">
+        <v>17.77</v>
+      </c>
+      <c r="E26">
+        <v>812267.57900000003</v>
+      </c>
+      <c r="F26">
+        <v>0.17</v>
+      </c>
+      <c r="G26">
+        <v>623124.076</v>
+      </c>
+      <c r="H26">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>20.9</v>
+      </c>
+      <c r="C27">
+        <v>20.88</v>
+      </c>
+      <c r="D27">
+        <v>20.95</v>
+      </c>
+      <c r="E27">
+        <v>432709.56300000002</v>
+      </c>
+      <c r="F27">
+        <v>0.09</v>
+      </c>
+      <c r="G27">
+        <v>168218.15</v>
+      </c>
+      <c r="H27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE5A21-78CF-4677-9451-6E3B94283A5F}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.34</v>
+      </c>
+      <c r="C6">
+        <v>7.26</v>
+      </c>
+      <c r="D6">
+        <v>7.43</v>
+      </c>
+      <c r="E6">
+        <v>1358663.2919999999</v>
+      </c>
+      <c r="F6">
+        <v>1.32</v>
+      </c>
+      <c r="G6">
+        <v>241377.54</v>
+      </c>
+      <c r="H6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.26</v>
+      </c>
+      <c r="C7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D7">
+        <v>8.41</v>
+      </c>
+      <c r="E7">
+        <v>15137325.397</v>
+      </c>
+      <c r="F7">
+        <v>14.73</v>
+      </c>
+      <c r="G7">
+        <v>3423955.0159999998</v>
+      </c>
+      <c r="H7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C8">
+        <v>9.17</v>
+      </c>
+      <c r="D8">
+        <v>9.24</v>
+      </c>
+      <c r="E8">
+        <v>414014.13400000002</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <v>167214.296</v>
+      </c>
+      <c r="H8">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10.69</v>
+      </c>
+      <c r="C9">
+        <v>10.65</v>
+      </c>
+      <c r="D9">
+        <v>10.74</v>
+      </c>
+      <c r="E9">
+        <v>11004422.488</v>
+      </c>
+      <c r="F9">
+        <v>10.71</v>
+      </c>
+      <c r="G9">
+        <v>5437927.3380000005</v>
+      </c>
+      <c r="H9">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>12.06</v>
+      </c>
+      <c r="C10">
+        <v>12.01</v>
+      </c>
+      <c r="D10">
+        <v>12.11</v>
+      </c>
+      <c r="E10">
+        <v>2791123.3879999998</v>
+      </c>
+      <c r="F10">
+        <v>2.72</v>
+      </c>
+      <c r="G10">
+        <v>1437023.389</v>
+      </c>
+      <c r="H10">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>12.2</v>
+      </c>
+      <c r="C11">
+        <v>12.15</v>
+      </c>
+      <c r="D11">
+        <v>12.28</v>
+      </c>
+      <c r="E11">
+        <v>32556744.912999999</v>
+      </c>
+      <c r="F11">
+        <v>31.67</v>
+      </c>
+      <c r="G11">
+        <v>16508602.478</v>
+      </c>
+      <c r="H11">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>12.9</v>
+      </c>
+      <c r="C12">
+        <v>12.88</v>
+      </c>
+      <c r="D12">
+        <v>12.94</v>
+      </c>
+      <c r="E12">
+        <v>1251677.524</v>
+      </c>
+      <c r="F12">
+        <v>1.22</v>
+      </c>
+      <c r="G12">
+        <v>840516.24399999995</v>
+      </c>
+      <c r="H12">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>13.06</v>
+      </c>
+      <c r="C13">
+        <v>13.03</v>
+      </c>
+      <c r="D13">
+        <v>13.09</v>
+      </c>
+      <c r="E13">
+        <v>1979534.9650000001</v>
+      </c>
+      <c r="F13">
+        <v>1.93</v>
+      </c>
+      <c r="G13">
+        <v>1064034.4920000001</v>
+      </c>
+      <c r="H13">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>13.51</v>
+      </c>
+      <c r="C14">
+        <v>13.5</v>
+      </c>
+      <c r="D14">
+        <v>13.54</v>
+      </c>
+      <c r="E14">
+        <v>393782.63799999998</v>
+      </c>
+      <c r="F14">
+        <v>0.38</v>
+      </c>
+      <c r="G14">
+        <v>250396.06400000001</v>
+      </c>
+      <c r="H14">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>13.59</v>
+      </c>
+      <c r="C15">
+        <v>13.56</v>
+      </c>
+      <c r="D15">
+        <v>13.61</v>
+      </c>
+      <c r="E15">
+        <v>228056.69099999999</v>
+      </c>
+      <c r="F15">
+        <v>0.22</v>
+      </c>
+      <c r="G15">
+        <v>157901.80900000001</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>13.65</v>
+      </c>
+      <c r="C16">
+        <v>13.62</v>
+      </c>
+      <c r="D16">
+        <v>13.71</v>
+      </c>
+      <c r="E16">
+        <v>536961.35800000001</v>
+      </c>
+      <c r="F16">
+        <v>0.52</v>
+      </c>
+      <c r="G16">
+        <v>256424.18400000001</v>
+      </c>
+      <c r="H16">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>13.85</v>
+      </c>
+      <c r="C17">
+        <v>13.82</v>
+      </c>
+      <c r="D17">
+        <v>13.89</v>
+      </c>
+      <c r="E17">
+        <v>21112541.896000002</v>
+      </c>
+      <c r="F17">
+        <v>20.54</v>
+      </c>
+      <c r="G17">
+        <v>14357092.872</v>
+      </c>
+      <c r="H17">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>15.98</v>
+      </c>
+      <c r="C18">
+        <v>15.93</v>
+      </c>
+      <c r="D18">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E18">
+        <v>10760187.471000001</v>
+      </c>
+      <c r="F18">
+        <v>10.47</v>
+      </c>
+      <c r="G18">
+        <v>5677279.0800000001</v>
+      </c>
+      <c r="H18">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>17.75</v>
+      </c>
+      <c r="C19">
+        <v>17.7</v>
+      </c>
+      <c r="D19">
+        <v>17.78</v>
+      </c>
+      <c r="E19">
+        <v>3010178.091</v>
+      </c>
+      <c r="F19">
+        <v>2.93</v>
+      </c>
+      <c r="G19">
+        <v>1877612.781</v>
+      </c>
+      <c r="H19">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>20.91</v>
+      </c>
+      <c r="C20">
+        <v>20.89</v>
+      </c>
+      <c r="D20">
+        <v>20.92</v>
+      </c>
+      <c r="E20">
+        <v>48808.421000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>47895.692000000003</v>
+      </c>
+      <c r="H20">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>22.14</v>
+      </c>
+      <c r="C21">
+        <v>22.1</v>
+      </c>
+      <c r="D21">
+        <v>22.15</v>
+      </c>
+      <c r="E21">
+        <v>204223.291</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>96986.153000000006</v>
+      </c>
+      <c r="H21">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0825922-3829-4029-8E96-432CEA43632E}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.33</v>
+      </c>
+      <c r="C6">
+        <v>7.26</v>
+      </c>
+      <c r="D6">
+        <v>7.42</v>
+      </c>
+      <c r="E6">
+        <v>861004.16700000002</v>
+      </c>
+      <c r="F6">
+        <v>1.92</v>
+      </c>
+      <c r="G6">
+        <v>158721.209</v>
+      </c>
+      <c r="H6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.27</v>
+      </c>
+      <c r="C7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D7">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E7">
+        <v>2908994.6179999998</v>
+      </c>
+      <c r="F7">
+        <v>6.49</v>
+      </c>
+      <c r="G7">
+        <v>649971.01199999999</v>
+      </c>
+      <c r="H7">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C8">
+        <v>9.17</v>
+      </c>
+      <c r="D8">
+        <v>9.27</v>
+      </c>
+      <c r="E8">
+        <v>369056.40700000001</v>
+      </c>
+      <c r="F8">
+        <v>0.82</v>
+      </c>
+      <c r="G8">
+        <v>125771.692</v>
+      </c>
+      <c r="H8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>11.01</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>11.02</v>
+      </c>
+      <c r="E9">
+        <v>15956.826999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.04</v>
+      </c>
+      <c r="G9">
+        <v>19950.205000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>12.2</v>
+      </c>
+      <c r="C10">
+        <v>12.15</v>
+      </c>
+      <c r="D10">
+        <v>12.28</v>
+      </c>
+      <c r="E10">
+        <v>21007491.776999999</v>
+      </c>
+      <c r="F10">
+        <v>46.89</v>
+      </c>
+      <c r="G10">
+        <v>10221494.573000001</v>
+      </c>
+      <c r="H10">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>13.07</v>
+      </c>
+      <c r="C11">
+        <v>13.03</v>
+      </c>
+      <c r="D11">
+        <v>13.09</v>
+      </c>
+      <c r="E11">
+        <v>1272281.2760000001</v>
+      </c>
+      <c r="F11">
+        <v>2.84</v>
+      </c>
+      <c r="G11">
+        <v>726984.44900000002</v>
+      </c>
+      <c r="H11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>13.59</v>
+      </c>
+      <c r="C12">
+        <v>13.57</v>
+      </c>
+      <c r="D12">
+        <v>13.61</v>
+      </c>
+      <c r="E12">
+        <v>69665.229000000007</v>
+      </c>
+      <c r="F12">
+        <v>0.16</v>
+      </c>
+      <c r="G12">
+        <v>53217.262000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>13.85</v>
+      </c>
+      <c r="C13">
+        <v>13.81</v>
+      </c>
+      <c r="D13">
+        <v>13.89</v>
+      </c>
+      <c r="E13">
+        <v>12996313.483999999</v>
+      </c>
+      <c r="F13">
+        <v>29.01</v>
+      </c>
+      <c r="G13">
+        <v>8742351.6710000001</v>
+      </c>
+      <c r="H13">
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>15.99</v>
+      </c>
+      <c r="C14">
+        <v>15.94</v>
+      </c>
+      <c r="D14">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E14">
+        <v>3799860.1320000002</v>
+      </c>
+      <c r="F14">
+        <v>8.48</v>
+      </c>
+      <c r="G14">
+        <v>1907164.7420000001</v>
+      </c>
+      <c r="H14">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C15">
+        <v>16.47</v>
+      </c>
+      <c r="D15">
+        <v>16.55</v>
+      </c>
+      <c r="E15">
+        <v>808848.63800000004</v>
+      </c>
+      <c r="F15">
+        <v>1.81</v>
+      </c>
+      <c r="G15">
+        <v>401243.31400000001</v>
+      </c>
+      <c r="H15">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>17.75</v>
+      </c>
+      <c r="C16">
+        <v>17.72</v>
+      </c>
+      <c r="D16">
+        <v>17.78</v>
+      </c>
+      <c r="E16">
+        <v>688822.29200000002</v>
+      </c>
+      <c r="F16">
+        <v>1.54</v>
+      </c>
+      <c r="G16">
+        <v>416517.40299999999</v>
+      </c>
+      <c r="H16">
+        <v>1.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5517029-7CA3-4532-A0D5-C2A461DD4769}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5.96</v>
+      </c>
+      <c r="C6">
+        <v>5.91</v>
+      </c>
+      <c r="D6">
+        <v>6.02</v>
+      </c>
+      <c r="E6">
+        <v>497763.587</v>
+      </c>
+      <c r="F6">
+        <v>0.18</v>
+      </c>
+      <c r="G6">
+        <v>109907.671</v>
+      </c>
+      <c r="H6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7.07</v>
+      </c>
+      <c r="C7">
+        <v>7.02</v>
+      </c>
+      <c r="D7">
+        <v>7.1</v>
+      </c>
+      <c r="E7">
+        <v>397648.02100000001</v>
+      </c>
+      <c r="F7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7">
+        <v>106157.14599999999</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7.31</v>
+      </c>
+      <c r="C8">
+        <v>7.25</v>
+      </c>
+      <c r="D8">
+        <v>7.51</v>
+      </c>
+      <c r="E8">
+        <v>25262978.418000001</v>
+      </c>
+      <c r="F8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G8">
+        <v>3731343.7179999999</v>
+      </c>
+      <c r="H8">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>10.9</v>
+      </c>
+      <c r="C9">
+        <v>10.88</v>
+      </c>
+      <c r="D9">
+        <v>10.95</v>
+      </c>
+      <c r="E9">
+        <v>1800870.0330000001</v>
+      </c>
+      <c r="F9">
+        <v>0.66</v>
+      </c>
+      <c r="G9">
+        <v>796586.87600000005</v>
+      </c>
+      <c r="H9">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11.04</v>
+      </c>
+      <c r="C10">
+        <v>10.99</v>
+      </c>
+      <c r="D10">
+        <v>11.04</v>
+      </c>
+      <c r="E10">
+        <v>932240.47100000002</v>
+      </c>
+      <c r="F10">
+        <v>0.34</v>
+      </c>
+      <c r="G10">
+        <v>853328.13500000001</v>
+      </c>
+      <c r="H10">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>11.39</v>
+      </c>
+      <c r="C11">
+        <v>11.31</v>
+      </c>
+      <c r="D11">
+        <v>11.43</v>
+      </c>
+      <c r="E11">
+        <v>4446105.7479999997</v>
+      </c>
+      <c r="F11">
+        <v>1.62</v>
+      </c>
+      <c r="G11">
+        <v>1894537.9909999999</v>
+      </c>
+      <c r="H11">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11.46</v>
+      </c>
+      <c r="C12">
+        <v>11.45</v>
+      </c>
+      <c r="D12">
+        <v>11.49</v>
+      </c>
+      <c r="E12">
+        <v>846652.41599999997</v>
+      </c>
+      <c r="F12">
+        <v>0.31</v>
+      </c>
+      <c r="G12">
+        <v>478499.97499999998</v>
+      </c>
+      <c r="H12">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>12.06</v>
+      </c>
+      <c r="C13">
+        <v>12.02</v>
+      </c>
+      <c r="D13">
+        <v>12.09</v>
+      </c>
+      <c r="E13">
+        <v>3201246.0389999999</v>
+      </c>
+      <c r="F13">
+        <v>1.17</v>
+      </c>
+      <c r="G13">
+        <v>1705388.77</v>
+      </c>
+      <c r="H13">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12.2</v>
+      </c>
+      <c r="C14">
+        <v>12.14</v>
+      </c>
+      <c r="D14">
+        <v>12.26</v>
+      </c>
+      <c r="E14">
+        <v>16830101.759</v>
+      </c>
+      <c r="F14">
+        <v>6.13</v>
+      </c>
+      <c r="G14">
+        <v>8147180.2960000001</v>
+      </c>
+      <c r="H14">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>12.9</v>
+      </c>
+      <c r="C15">
+        <v>12.88</v>
+      </c>
+      <c r="D15">
+        <v>12.94</v>
+      </c>
+      <c r="E15">
+        <v>545397.31400000001</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>299629.87900000002</v>
+      </c>
+      <c r="H15">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>13.07</v>
+      </c>
+      <c r="C16">
+        <v>13.02</v>
+      </c>
+      <c r="D16">
+        <v>13.11</v>
+      </c>
+      <c r="E16">
+        <v>2047871.56</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16">
+        <v>1066593.4569999999</v>
+      </c>
+      <c r="H16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>13.18</v>
+      </c>
+      <c r="C17">
+        <v>13.14</v>
+      </c>
+      <c r="D17">
+        <v>13.2</v>
+      </c>
+      <c r="E17">
+        <v>290261.20899999997</v>
+      </c>
+      <c r="F17">
+        <v>0.11</v>
+      </c>
+      <c r="G17">
+        <v>134657.429</v>
+      </c>
+      <c r="H17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>13.53</v>
+      </c>
+      <c r="C18">
+        <v>13.48</v>
+      </c>
+      <c r="D18">
+        <v>13.54</v>
+      </c>
+      <c r="E18">
+        <v>7828705.7060000002</v>
+      </c>
+      <c r="F18">
+        <v>2.85</v>
+      </c>
+      <c r="G18">
+        <v>3835996.5410000002</v>
+      </c>
+      <c r="H18">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>13.56</v>
+      </c>
+      <c r="C19">
+        <v>13.55</v>
+      </c>
+      <c r="D19">
+        <v>13.59</v>
+      </c>
+      <c r="E19">
+        <v>1900550.7849999999</v>
+      </c>
+      <c r="F19">
+        <v>0.69</v>
+      </c>
+      <c r="G19">
+        <v>1455869.23</v>
+      </c>
+      <c r="H19">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>13.79</v>
+      </c>
+      <c r="C20">
+        <v>13.77</v>
+      </c>
+      <c r="D20">
+        <v>13.84</v>
+      </c>
+      <c r="E20">
+        <v>8707502.5439999998</v>
+      </c>
+      <c r="F20">
+        <v>3.17</v>
+      </c>
+      <c r="G20">
+        <v>4570603.0070000002</v>
+      </c>
+      <c r="H20">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>14.08</v>
+      </c>
+      <c r="C21">
+        <v>14.06</v>
+      </c>
+      <c r="D21">
+        <v>14.1</v>
+      </c>
+      <c r="E21">
+        <v>838854.179</v>
+      </c>
+      <c r="F21">
+        <v>0.31</v>
+      </c>
+      <c r="G21">
+        <v>544955.46100000001</v>
+      </c>
+      <c r="H21">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>14.26</v>
+      </c>
+      <c r="C22">
+        <v>14.22</v>
+      </c>
+      <c r="D22">
+        <v>14.3</v>
+      </c>
+      <c r="E22">
+        <v>10241036.926000001</v>
+      </c>
+      <c r="F22">
+        <v>3.73</v>
+      </c>
+      <c r="G22">
+        <v>6305278.3169999998</v>
+      </c>
+      <c r="H22">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>14.69</v>
+      </c>
+      <c r="C23">
+        <v>14.67</v>
+      </c>
+      <c r="D23">
+        <v>14.72</v>
+      </c>
+      <c r="E23">
+        <v>1013687.577</v>
+      </c>
+      <c r="F23">
+        <v>0.37</v>
+      </c>
+      <c r="G23">
+        <v>717165.64800000004</v>
+      </c>
+      <c r="H23">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>15.11</v>
+      </c>
+      <c r="C24">
+        <v>15.07</v>
+      </c>
+      <c r="D24">
+        <v>15.15</v>
+      </c>
+      <c r="E24">
+        <v>3240612.6519999998</v>
+      </c>
+      <c r="F24">
+        <v>1.18</v>
+      </c>
+      <c r="G24">
+        <v>1585861.3489999999</v>
+      </c>
+      <c r="H24">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>15.38</v>
+      </c>
+      <c r="C25">
+        <v>15.35</v>
+      </c>
+      <c r="D25">
+        <v>15.4</v>
+      </c>
+      <c r="E25">
+        <v>286379.63099999999</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <v>179386.58199999999</v>
+      </c>
+      <c r="H25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>15.51</v>
+      </c>
+      <c r="C26">
+        <v>15.48</v>
+      </c>
+      <c r="D26">
+        <v>15.57</v>
+      </c>
+      <c r="E26">
+        <v>4540302.4610000001</v>
+      </c>
+      <c r="F26">
+        <v>1.65</v>
+      </c>
+      <c r="G26">
+        <v>2693144.7740000002</v>
+      </c>
+      <c r="H26">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>15.63</v>
+      </c>
+      <c r="C27">
+        <v>15.62</v>
+      </c>
+      <c r="D27">
+        <v>15.67</v>
+      </c>
+      <c r="E27">
+        <v>371243.93300000002</v>
+      </c>
+      <c r="F27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G27">
+        <v>247948.65</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>15.9</v>
+      </c>
+      <c r="C28">
+        <v>15.86</v>
+      </c>
+      <c r="D28">
+        <v>15.92</v>
+      </c>
+      <c r="E28">
+        <v>1319241.791</v>
+      </c>
+      <c r="F28">
+        <v>0.48</v>
+      </c>
+      <c r="G28">
+        <v>774982.61300000001</v>
+      </c>
+      <c r="H28">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>16.88</v>
+      </c>
+      <c r="C29">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="D29">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E29">
+        <v>55742636.364</v>
+      </c>
+      <c r="F29">
+        <v>20.3</v>
+      </c>
+      <c r="G29">
+        <v>16602449.691</v>
+      </c>
+      <c r="H29">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="C30">
+        <v>17.54</v>
+      </c>
+      <c r="D30">
+        <v>17.62</v>
+      </c>
+      <c r="E30">
+        <v>12411318.632999999</v>
+      </c>
+      <c r="F30">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G30">
+        <v>7521848.9510000004</v>
+      </c>
+      <c r="H30">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C31">
+        <v>17.71</v>
+      </c>
+      <c r="D31">
+        <v>17.77</v>
+      </c>
+      <c r="E31">
+        <v>428890.71600000001</v>
+      </c>
+      <c r="F31">
+        <v>0.16</v>
+      </c>
+      <c r="G31">
+        <v>197567.24100000001</v>
+      </c>
+      <c r="H31">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>17.93</v>
+      </c>
+      <c r="C32">
+        <v>17.88</v>
+      </c>
+      <c r="D32">
+        <v>17.95</v>
+      </c>
+      <c r="E32">
+        <v>1034661.589</v>
+      </c>
+      <c r="F32">
+        <v>0.38</v>
+      </c>
+      <c r="G32">
+        <v>556440.57299999997</v>
+      </c>
+      <c r="H32">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>18.03</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>18.05</v>
+      </c>
+      <c r="E33">
+        <v>1212750.1850000001</v>
+      </c>
+      <c r="F33">
+        <v>0.44</v>
+      </c>
+      <c r="G33">
+        <v>816920.728</v>
+      </c>
+      <c r="H33">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C34">
+        <v>18.98</v>
+      </c>
+      <c r="D34">
+        <v>19.05</v>
+      </c>
+      <c r="E34">
+        <v>4812421.7280000001</v>
+      </c>
+      <c r="F34">
+        <v>1.75</v>
+      </c>
+      <c r="G34">
+        <v>2865657.19</v>
+      </c>
+      <c r="H34">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>19.11</v>
+      </c>
+      <c r="C35">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D35">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="E35">
+        <v>77302647.356000006</v>
+      </c>
+      <c r="F35">
+        <v>28.15</v>
+      </c>
+      <c r="G35">
+        <v>41737183.740000002</v>
+      </c>
+      <c r="H35">
+        <v>33.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>22.13</v>
+      </c>
+      <c r="C36">
+        <v>22.09</v>
+      </c>
+      <c r="D36">
+        <v>22.18</v>
+      </c>
+      <c r="E36">
+        <v>22391979.175000001</v>
+      </c>
+      <c r="F36">
+        <v>8.15</v>
+      </c>
+      <c r="G36">
+        <v>12005414.310000001</v>
+      </c>
+      <c r="H36">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>22.84</v>
+      </c>
+      <c r="C37">
+        <v>22.8</v>
+      </c>
+      <c r="D37">
+        <v>22.86</v>
+      </c>
+      <c r="E37">
+        <v>1920557.18</v>
+      </c>
+      <c r="F37">
+        <v>0.7</v>
+      </c>
+      <c r="G37">
+        <v>1099157.878</v>
+      </c>
+      <c r="H37">
+        <v>0.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6948D-9A8B-4A87-87AC-114D07596581}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6.74</v>
+      </c>
+      <c r="C6">
+        <v>6.65</v>
+      </c>
+      <c r="D6">
+        <v>6.98</v>
+      </c>
+      <c r="E6">
+        <v>9463435.1329999994</v>
+      </c>
+      <c r="F6">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="G6">
+        <v>1090246.6610000001</v>
+      </c>
+      <c r="H6">
+        <v>43.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>11.05</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11.1</v>
+      </c>
+      <c r="E7">
+        <v>427842.69300000003</v>
+      </c>
+      <c r="F7">
+        <v>3.39</v>
+      </c>
+      <c r="G7">
+        <v>149419.726</v>
+      </c>
+      <c r="H7">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>12.22</v>
+      </c>
+      <c r="C8">
+        <v>12.15</v>
+      </c>
+      <c r="D8">
+        <v>12.26</v>
+      </c>
+      <c r="E8">
+        <v>1179586.0970000001</v>
+      </c>
+      <c r="F8">
+        <v>9.35</v>
+      </c>
+      <c r="G8">
+        <v>461076.06300000002</v>
+      </c>
+      <c r="H8">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>13.8</v>
+      </c>
+      <c r="C9">
+        <v>13.75</v>
+      </c>
+      <c r="D9">
+        <v>13.84</v>
+      </c>
+      <c r="E9">
+        <v>1548257.077</v>
+      </c>
+      <c r="F9">
+        <v>12.27</v>
+      </c>
+      <c r="G9">
+        <v>821478.03500000003</v>
+      </c>
+      <c r="H9">
+        <v>32.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2DF34-7AC7-4202-B14E-291A7387A1F7}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.07</v>
+      </c>
+      <c r="C6">
+        <v>7.04</v>
+      </c>
+      <c r="D6">
+        <v>7.09</v>
+      </c>
+      <c r="E6">
+        <v>126300.05899999999</v>
+      </c>
+      <c r="F6">
+        <v>0.23</v>
+      </c>
+      <c r="G6">
+        <v>71997.031000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.33</v>
+      </c>
+      <c r="C7">
+        <v>7.27</v>
+      </c>
+      <c r="D7">
+        <v>7.45</v>
+      </c>
+      <c r="E7">
+        <v>2910815.7740000002</v>
+      </c>
+      <c r="F7">
+        <v>5.41</v>
+      </c>
+      <c r="G7">
+        <v>496725.12300000002</v>
+      </c>
+      <c r="H7">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C8">
+        <v>8.26</v>
+      </c>
+      <c r="D8">
+        <v>8.31</v>
+      </c>
+      <c r="E8">
+        <v>95344.976999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.18</v>
+      </c>
+      <c r="G8">
+        <v>49654.264999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>11.37</v>
+      </c>
+      <c r="C9">
+        <v>11.36</v>
+      </c>
+      <c r="D9">
+        <v>11.4</v>
+      </c>
+      <c r="E9">
+        <v>89063.407000000007</v>
+      </c>
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+      <c r="G9">
+        <v>65434.972999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>12.22</v>
+      </c>
+      <c r="C10">
+        <v>12.15</v>
+      </c>
+      <c r="D10">
+        <v>12.26</v>
+      </c>
+      <c r="E10">
+        <v>14201635.863</v>
+      </c>
+      <c r="F10">
+        <v>26.42</v>
+      </c>
+      <c r="G10">
+        <v>7440161.1919999998</v>
+      </c>
+      <c r="H10">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>13.07</v>
+      </c>
+      <c r="C11">
+        <v>13.05</v>
+      </c>
+      <c r="D11">
+        <v>13.09</v>
+      </c>
+      <c r="E11">
+        <v>586882.56799999997</v>
+      </c>
+      <c r="F11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G11">
+        <v>399291.02299999999</v>
+      </c>
+      <c r="H11">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>13.53</v>
+      </c>
+      <c r="C12">
+        <v>13.48</v>
+      </c>
+      <c r="D12">
+        <v>13.57</v>
+      </c>
+      <c r="E12">
+        <v>7633723.3499999996</v>
+      </c>
+      <c r="F12">
+        <v>14.2</v>
+      </c>
+      <c r="G12">
+        <v>4326178.8260000004</v>
+      </c>
+      <c r="H12">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>13.86</v>
+      </c>
+      <c r="C13">
+        <v>13.83</v>
+      </c>
+      <c r="D13">
+        <v>13.9</v>
+      </c>
+      <c r="E13">
+        <v>24521831.256000001</v>
+      </c>
+      <c r="F13">
+        <v>45.62</v>
+      </c>
+      <c r="G13">
+        <v>15428227.602</v>
+      </c>
+      <c r="H13">
+        <v>51.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>14.09</v>
+      </c>
+      <c r="C14">
+        <v>14.06</v>
+      </c>
+      <c r="D14">
+        <v>14.15</v>
+      </c>
+      <c r="E14">
+        <v>563417.56599999999</v>
+      </c>
+      <c r="F14">
+        <v>1.05</v>
+      </c>
+      <c r="G14">
+        <v>226907.35</v>
+      </c>
+      <c r="H14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>15.99</v>
+      </c>
+      <c r="C15">
+        <v>15.96</v>
+      </c>
+      <c r="D15">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E15">
+        <v>2753314.6260000002</v>
+      </c>
+      <c r="F15">
+        <v>5.12</v>
+      </c>
+      <c r="G15">
+        <v>1364510.183</v>
+      </c>
+      <c r="H15">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C16">
+        <v>17.72</v>
+      </c>
+      <c r="D16">
+        <v>17.78</v>
+      </c>
+      <c r="E16">
+        <v>272611.48499999999</v>
+      </c>
+      <c r="F16">
+        <v>0.51</v>
+      </c>
+      <c r="G16">
+        <v>154440.93</v>
+      </c>
+      <c r="H16">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600F68FA-A6F8-439C-9122-07A6C026C51F}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.33</v>
+      </c>
+      <c r="C6">
+        <v>7.31</v>
+      </c>
+      <c r="D6">
+        <v>7.38</v>
+      </c>
+      <c r="E6">
+        <v>273049.3</v>
+      </c>
+      <c r="F6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G6">
+        <v>90021.758000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C7">
+        <v>8.23</v>
+      </c>
+      <c r="D7">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E7">
+        <v>186871.264</v>
+      </c>
+      <c r="F7">
+        <v>0.79</v>
+      </c>
+      <c r="G7">
+        <v>73958.987999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>11.04</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>11.04</v>
+      </c>
+      <c r="E8">
+        <v>85725.891000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.36</v>
+      </c>
+      <c r="G8">
+        <v>62951.053</v>
+      </c>
+      <c r="H8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>11.39</v>
+      </c>
+      <c r="C9">
+        <v>11.36</v>
+      </c>
+      <c r="D9">
+        <v>11.42</v>
+      </c>
+      <c r="E9">
+        <v>229015.91399999999</v>
+      </c>
+      <c r="F9">
+        <v>0.96</v>
+      </c>
+      <c r="G9">
+        <v>127995.65300000001</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>12.22</v>
+      </c>
+      <c r="C10">
+        <v>12.15</v>
+      </c>
+      <c r="D10">
+        <v>12.25</v>
+      </c>
+      <c r="E10">
+        <v>3726614.6540000001</v>
+      </c>
+      <c r="F10">
+        <v>15.68</v>
+      </c>
+      <c r="G10">
+        <v>1873643.4240000001</v>
+      </c>
+      <c r="H10">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>13.07</v>
+      </c>
+      <c r="C11">
+        <v>13.05</v>
+      </c>
+      <c r="D11">
+        <v>13.09</v>
+      </c>
+      <c r="E11">
+        <v>169860.20499999999</v>
+      </c>
+      <c r="F11">
+        <v>0.71</v>
+      </c>
+      <c r="G11">
+        <v>119903.996</v>
+      </c>
+      <c r="H11">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>13.53</v>
+      </c>
+      <c r="C12">
+        <v>13.47</v>
+      </c>
+      <c r="D12">
+        <v>13.56</v>
+      </c>
+      <c r="E12">
+        <v>2965472.3530000001</v>
+      </c>
+      <c r="F12">
+        <v>12.47</v>
+      </c>
+      <c r="G12">
+        <v>1445556.476</v>
+      </c>
+      <c r="H12">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>13.85</v>
+      </c>
+      <c r="C13">
+        <v>13.83</v>
+      </c>
+      <c r="D13">
+        <v>13.9</v>
+      </c>
+      <c r="E13">
+        <v>9209646.1539999992</v>
+      </c>
+      <c r="F13">
+        <v>38.74</v>
+      </c>
+      <c r="G13">
+        <v>5530736.5619999999</v>
+      </c>
+      <c r="H13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>14.09</v>
+      </c>
+      <c r="C14">
+        <v>14.06</v>
+      </c>
+      <c r="D14">
+        <v>14.14</v>
+      </c>
+      <c r="E14">
+        <v>476412.766</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>232637.55499999999</v>
+      </c>
+      <c r="H14">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>15.99</v>
+      </c>
+      <c r="C15">
+        <v>15.96</v>
+      </c>
+      <c r="D15">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E15">
+        <v>3288202.9369999999</v>
+      </c>
+      <c r="F15">
+        <v>13.83</v>
+      </c>
+      <c r="G15">
+        <v>1784048.4040000001</v>
+      </c>
+      <c r="H15">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C16">
+        <v>17.71</v>
+      </c>
+      <c r="D16">
+        <v>17.8</v>
+      </c>
+      <c r="E16">
+        <v>1994451.1640000001</v>
+      </c>
+      <c r="F16">
+        <v>8.39</v>
+      </c>
+      <c r="G16">
+        <v>1172196.4739999999</v>
+      </c>
+      <c r="H16">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>20.92</v>
+      </c>
+      <c r="C17">
+        <v>20.89</v>
+      </c>
+      <c r="D17">
+        <v>20.98</v>
+      </c>
+      <c r="E17">
+        <v>1167293.0649999999</v>
+      </c>
+      <c r="F17">
+        <v>4.91</v>
+      </c>
+      <c r="G17">
+        <v>348527.52399999998</v>
+      </c>
+      <c r="H17">
+        <v>2.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDC10C5-32D2-47C6-B0D0-3385556D4D1A}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5.97</v>
+      </c>
+      <c r="C6">
+        <v>5.92</v>
+      </c>
+      <c r="D6">
+        <v>6.02</v>
+      </c>
+      <c r="E6">
+        <v>559509.88199999998</v>
+      </c>
+      <c r="F6">
+        <v>0.72</v>
+      </c>
+      <c r="G6">
+        <v>129079.98</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6.74</v>
+      </c>
+      <c r="C7">
+        <v>6.66</v>
+      </c>
+      <c r="D7">
+        <v>6.86</v>
+      </c>
+      <c r="E7">
+        <v>4721440.6119999997</v>
+      </c>
+      <c r="F7">
+        <v>6.07</v>
+      </c>
+      <c r="G7">
+        <v>713407.34600000002</v>
+      </c>
+      <c r="H7">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12.06</v>
+      </c>
+      <c r="C8">
+        <v>12.02</v>
+      </c>
+      <c r="D8">
+        <v>12.12</v>
+      </c>
+      <c r="E8">
+        <v>1733449.4939999999</v>
+      </c>
+      <c r="F8">
+        <v>2.23</v>
+      </c>
+      <c r="G8">
+        <v>791188.8</v>
+      </c>
+      <c r="H8">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>12.22</v>
+      </c>
+      <c r="C9">
+        <v>12.16</v>
+      </c>
+      <c r="D9">
+        <v>12.25</v>
+      </c>
+      <c r="E9">
+        <v>5015124.6119999997</v>
+      </c>
+      <c r="F9">
+        <v>6.45</v>
+      </c>
+      <c r="G9">
+        <v>2366040.3909999998</v>
+      </c>
+      <c r="H9">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>13.51</v>
+      </c>
+      <c r="C10">
+        <v>13.47</v>
+      </c>
+      <c r="D10">
+        <v>13.56</v>
+      </c>
+      <c r="E10">
+        <v>2176098.341</v>
+      </c>
+      <c r="F10">
+        <v>2.8</v>
+      </c>
+      <c r="G10">
+        <v>755061.17500000005</v>
+      </c>
+      <c r="H10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>13.8</v>
+      </c>
+      <c r="C11">
+        <v>13.75</v>
+      </c>
+      <c r="D11">
+        <v>13.84</v>
+      </c>
+      <c r="E11">
+        <v>63158006.072999999</v>
+      </c>
+      <c r="F11">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="G11">
+        <v>37796933.067000002</v>
+      </c>
+      <c r="H11">
+        <v>88.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C12">
+        <v>16.47</v>
+      </c>
+      <c r="D12">
+        <v>16.52</v>
+      </c>
+      <c r="E12">
+        <v>175688.984</v>
+      </c>
+      <c r="F12">
+        <v>0.23</v>
+      </c>
+      <c r="G12">
+        <v>101668.431</v>
+      </c>
+      <c r="H12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>20.91</v>
+      </c>
+      <c r="C13">
+        <v>20.9</v>
+      </c>
+      <c r="D13">
+        <v>20.94</v>
+      </c>
+      <c r="E13">
+        <v>200654.44099999999</v>
+      </c>
+      <c r="F13">
+        <v>0.26</v>
+      </c>
+      <c r="G13">
+        <v>165679.22</v>
+      </c>
+      <c r="H13">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185A1F76-8FFA-4AF5-A605-FE189D47695F}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11.05</v>
+      </c>
+      <c r="C6">
+        <v>10.99</v>
+      </c>
+      <c r="D6">
+        <v>11.08</v>
+      </c>
+      <c r="E6">
+        <v>727782.29700000002</v>
+      </c>
+      <c r="F6">
+        <v>43.19</v>
+      </c>
+      <c r="G6">
+        <v>288021.20600000001</v>
+      </c>
+      <c r="H6">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>12.2</v>
+      </c>
+      <c r="C7">
+        <v>12.16</v>
+      </c>
+      <c r="D7">
+        <v>12.24</v>
+      </c>
+      <c r="E7">
+        <v>792176.40099999995</v>
+      </c>
+      <c r="F7">
+        <v>47.01</v>
+      </c>
+      <c r="G7">
+        <v>320173.05699999997</v>
+      </c>
+      <c r="H7">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C8">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="D8">
+        <v>17.77</v>
+      </c>
+      <c r="E8">
+        <v>165262.508</v>
+      </c>
+      <c r="F8">
+        <v>9.81</v>
+      </c>
+      <c r="G8">
+        <v>126939.686</v>
+      </c>
+      <c r="H8">
+        <v>17.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D95232E-319D-476A-8C6A-81808EF2A1D8}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11.05</v>
+      </c>
+      <c r="C6">
+        <v>10.99</v>
+      </c>
+      <c r="D6">
+        <v>11.07</v>
+      </c>
+      <c r="E6">
+        <v>390106.109</v>
+      </c>
+      <c r="F6">
+        <v>50.91</v>
+      </c>
+      <c r="G6">
+        <v>115892.012</v>
+      </c>
+      <c r="H6">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>15.1</v>
+      </c>
+      <c r="C7">
+        <v>15.07</v>
+      </c>
+      <c r="D7">
+        <v>15.15</v>
+      </c>
+      <c r="E7">
+        <v>376099.72100000002</v>
+      </c>
+      <c r="F7">
+        <v>49.09</v>
+      </c>
+      <c r="G7">
+        <v>170847.60500000001</v>
+      </c>
+      <c r="H7">
+        <v>59.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7B9D2F-8AE5-4F3F-8F70-31756A76B4B9}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5.26</v>
+      </c>
+      <c r="C6">
+        <v>5.17</v>
+      </c>
+      <c r="D6">
+        <v>5.5</v>
+      </c>
+      <c r="E6">
+        <v>8315197.7259999998</v>
+      </c>
+      <c r="F6">
+        <v>4.66</v>
+      </c>
+      <c r="G6">
+        <v>804066.85199999996</v>
+      </c>
+      <c r="H6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.95</v>
+      </c>
+      <c r="C7">
+        <v>5.9</v>
+      </c>
+      <c r="D7">
+        <v>6.09</v>
+      </c>
+      <c r="E7">
+        <v>1858918.824</v>
+      </c>
+      <c r="F7">
+        <v>1.04</v>
+      </c>
+      <c r="G7">
+        <v>260940.56200000001</v>
+      </c>
+      <c r="H7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.72</v>
+      </c>
+      <c r="C8">
+        <v>6.62</v>
+      </c>
+      <c r="D8">
+        <v>6.98</v>
+      </c>
+      <c r="E8">
+        <v>27798269.923</v>
+      </c>
+      <c r="F8">
+        <v>15.59</v>
+      </c>
+      <c r="G8">
+        <v>3169651.0049999999</v>
+      </c>
+      <c r="H8">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7.07</v>
+      </c>
+      <c r="C9">
+        <v>7.04</v>
+      </c>
+      <c r="D9">
+        <v>7.1</v>
+      </c>
+      <c r="E9">
+        <v>176035.05900000001</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>79544.634000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7.31</v>
+      </c>
+      <c r="C10">
+        <v>7.26</v>
+      </c>
+      <c r="D10">
+        <v>7.38</v>
+      </c>
+      <c r="E10">
+        <v>681824.25300000003</v>
+      </c>
+      <c r="F10">
+        <v>0.38</v>
+      </c>
+      <c r="G10">
+        <v>150807.26500000001</v>
+      </c>
+      <c r="H10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11.04</v>
+      </c>
+      <c r="C11">
+        <v>10.98</v>
+      </c>
+      <c r="D11">
+        <v>11.04</v>
+      </c>
+      <c r="E11">
+        <v>2718066.2850000001</v>
+      </c>
+      <c r="F11">
+        <v>1.52</v>
+      </c>
+      <c r="G11">
+        <v>1734606.9369999999</v>
+      </c>
+      <c r="H11">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11.37</v>
+      </c>
+      <c r="C12">
+        <v>11.34</v>
+      </c>
+      <c r="D12">
+        <v>11.41</v>
+      </c>
+      <c r="E12">
+        <v>468972.533</v>
+      </c>
+      <c r="F12">
+        <v>0.26</v>
+      </c>
+      <c r="G12">
+        <v>171847.90299999999</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>12.06</v>
+      </c>
+      <c r="C13">
+        <v>12.01</v>
+      </c>
+      <c r="D13">
+        <v>12.11</v>
+      </c>
+      <c r="E13">
+        <v>3500069.7829999998</v>
+      </c>
+      <c r="F13">
+        <v>1.96</v>
+      </c>
+      <c r="G13">
+        <v>1837450.612</v>
+      </c>
+      <c r="H13">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12.2</v>
+      </c>
+      <c r="C14">
+        <v>12.15</v>
+      </c>
+      <c r="D14">
+        <v>12.24</v>
+      </c>
+      <c r="E14">
+        <v>8282384.1490000002</v>
+      </c>
+      <c r="F14">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G14">
+        <v>4280673.1330000004</v>
+      </c>
+      <c r="H14">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>12.9</v>
+      </c>
+      <c r="C15">
+        <v>12.86</v>
+      </c>
+      <c r="D15">
+        <v>12.93</v>
+      </c>
+      <c r="E15">
+        <v>1200787.929</v>
+      </c>
+      <c r="F15">
+        <v>0.67</v>
+      </c>
+      <c r="G15">
+        <v>795127.37699999998</v>
+      </c>
+      <c r="H15">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>13.06</v>
+      </c>
+      <c r="C16">
+        <v>13.03</v>
+      </c>
+      <c r="D16">
+        <v>13.09</v>
+      </c>
+      <c r="E16">
+        <v>448404.761</v>
+      </c>
+      <c r="F16">
+        <v>0.25</v>
+      </c>
+      <c r="G16">
+        <v>276863.11800000002</v>
+      </c>
+      <c r="H16">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>13.17</v>
+      </c>
+      <c r="C17">
+        <v>13.13</v>
+      </c>
+      <c r="D17">
+        <v>13.2</v>
+      </c>
+      <c r="E17">
+        <v>974052.68400000001</v>
+      </c>
+      <c r="F17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G17">
+        <v>553978.27500000002</v>
+      </c>
+      <c r="H17">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>13.51</v>
+      </c>
+      <c r="C18">
+        <v>13.47</v>
+      </c>
+      <c r="D18">
+        <v>13.54</v>
+      </c>
+      <c r="E18">
+        <v>3115604.0129999998</v>
+      </c>
+      <c r="F18">
+        <v>1.75</v>
+      </c>
+      <c r="G18">
+        <v>1535879.0519999999</v>
+      </c>
+      <c r="H18">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>13.65</v>
+      </c>
+      <c r="C19">
+        <v>13.61</v>
+      </c>
+      <c r="D19">
+        <v>13.69</v>
+      </c>
+      <c r="E19">
+        <v>3307151.5150000001</v>
+      </c>
+      <c r="F19">
+        <v>1.85</v>
+      </c>
+      <c r="G19">
+        <v>1770299.959</v>
+      </c>
+      <c r="H19">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>13.79</v>
+      </c>
+      <c r="C20">
+        <v>13.75</v>
+      </c>
+      <c r="D20">
+        <v>13.82</v>
+      </c>
+      <c r="E20">
+        <v>3409086.5929999999</v>
+      </c>
+      <c r="F20">
+        <v>1.91</v>
+      </c>
+      <c r="G20">
+        <v>2108432.1549999998</v>
+      </c>
+      <c r="H20">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>13.85</v>
+      </c>
+      <c r="C21">
+        <v>13.83</v>
+      </c>
+      <c r="D21">
+        <v>13.89</v>
+      </c>
+      <c r="E21">
+        <v>5816400.3890000004</v>
+      </c>
+      <c r="F21">
+        <v>3.26</v>
+      </c>
+      <c r="G21">
+        <v>4236336.6459999997</v>
+      </c>
+      <c r="H21">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>14.08</v>
+      </c>
+      <c r="C22">
+        <v>14.04</v>
+      </c>
+      <c r="D22">
+        <v>14.13</v>
+      </c>
+      <c r="E22">
+        <v>2619244.8689999999</v>
+      </c>
+      <c r="F22">
+        <v>1.47</v>
+      </c>
+      <c r="G22">
+        <v>1338382.848</v>
+      </c>
+      <c r="H22">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>14.25</v>
+      </c>
+      <c r="C23">
+        <v>14.21</v>
+      </c>
+      <c r="D23">
+        <v>14.3</v>
+      </c>
+      <c r="E23">
+        <v>7532265.2079999996</v>
+      </c>
+      <c r="F23">
+        <v>4.22</v>
+      </c>
+      <c r="G23">
+        <v>4384901.2790000001</v>
+      </c>
+      <c r="H23">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>14.52</v>
+      </c>
+      <c r="C24">
+        <v>14.5</v>
+      </c>
+      <c r="D24">
+        <v>14.55</v>
+      </c>
+      <c r="E24">
+        <v>334052.52500000002</v>
+      </c>
+      <c r="F24">
+        <v>0.19</v>
+      </c>
+      <c r="G24">
+        <v>195243.93</v>
+      </c>
+      <c r="H24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>14.69</v>
+      </c>
+      <c r="C25">
+        <v>14.67</v>
+      </c>
+      <c r="D25">
+        <v>14.72</v>
+      </c>
+      <c r="E25">
+        <v>443130.73700000002</v>
+      </c>
+      <c r="F25">
+        <v>0.25</v>
+      </c>
+      <c r="G25">
+        <v>278598.636</v>
+      </c>
+      <c r="H25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>15.09</v>
+      </c>
+      <c r="C26">
+        <v>15.05</v>
+      </c>
+      <c r="D26">
+        <v>15.13</v>
+      </c>
+      <c r="E26">
+        <v>1322740.6040000001</v>
+      </c>
+      <c r="F26">
+        <v>0.74</v>
+      </c>
+      <c r="G26">
+        <v>545499.45700000005</v>
+      </c>
+      <c r="H26">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>15.5</v>
+      </c>
+      <c r="C27">
+        <v>15.46</v>
+      </c>
+      <c r="D27">
+        <v>15.56</v>
+      </c>
+      <c r="E27">
+        <v>30208873.151000001</v>
+      </c>
+      <c r="F27">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="G27">
+        <v>16741001.622</v>
+      </c>
+      <c r="H27">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>15.63</v>
+      </c>
+      <c r="C28">
+        <v>15.58</v>
+      </c>
+      <c r="D28">
+        <v>15.67</v>
+      </c>
+      <c r="E28">
+        <v>5954012.3399999999</v>
+      </c>
+      <c r="F28">
+        <v>3.34</v>
+      </c>
+      <c r="G28">
+        <v>3783663.5</v>
+      </c>
+      <c r="H28">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>15.88</v>
+      </c>
+      <c r="C29">
+        <v>15.86</v>
+      </c>
+      <c r="D29">
+        <v>15.92</v>
+      </c>
+      <c r="E29">
+        <v>2266579.1260000002</v>
+      </c>
+      <c r="F29">
+        <v>1.27</v>
+      </c>
+      <c r="G29">
+        <v>1352462.057</v>
+      </c>
+      <c r="H29">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>15.98</v>
+      </c>
+      <c r="C30">
+        <v>15.97</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>144874.50599999999</v>
+      </c>
+      <c r="F30">
+        <v>0.08</v>
+      </c>
+      <c r="G30">
+        <v>98923.247000000003</v>
+      </c>
+      <c r="H30">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>16.7</v>
+      </c>
+      <c r="C31">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="D31">
+        <v>16.73</v>
+      </c>
+      <c r="E31">
+        <v>2359275.1329999999</v>
+      </c>
+      <c r="F31">
+        <v>1.32</v>
+      </c>
+      <c r="G31">
+        <v>1446827.175</v>
+      </c>
+      <c r="H31">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>16.88</v>
+      </c>
+      <c r="C32">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D32">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E32">
+        <v>46537632.435999997</v>
+      </c>
+      <c r="F32">
+        <v>26.09</v>
+      </c>
+      <c r="G32">
+        <v>27585867.761</v>
+      </c>
+      <c r="H32">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="C33">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="D33">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E33">
+        <v>651913.25199999998</v>
+      </c>
+      <c r="F33">
+        <v>0.37</v>
+      </c>
+      <c r="G33">
+        <v>443865.03899999999</v>
+      </c>
+      <c r="H33">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>17.75</v>
+      </c>
+      <c r="C34">
+        <v>17.71</v>
+      </c>
+      <c r="D34">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="E34">
+        <v>338809.07</v>
+      </c>
+      <c r="F34">
+        <v>0.19</v>
+      </c>
+      <c r="G34">
+        <v>184663.807</v>
+      </c>
+      <c r="H34">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>18.03</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>18.05</v>
+      </c>
+      <c r="E35">
+        <v>1524674.952</v>
+      </c>
+      <c r="F35">
+        <v>0.85</v>
+      </c>
+      <c r="G35">
+        <v>1030568.62</v>
+      </c>
+      <c r="H35">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C36">
+        <v>19.07</v>
+      </c>
+      <c r="D36">
+        <v>19.13</v>
+      </c>
+      <c r="E36">
+        <v>839089.179</v>
+      </c>
+      <c r="F36">
+        <v>0.47</v>
+      </c>
+      <c r="G36">
+        <v>426599.40399999998</v>
+      </c>
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>20.91</v>
+      </c>
+      <c r="C37">
+        <v>20.88</v>
+      </c>
+      <c r="D37">
+        <v>20.92</v>
+      </c>
+      <c r="E37">
+        <v>254221.46599999999</v>
+      </c>
+      <c r="F37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G37">
+        <v>186081.921</v>
+      </c>
+      <c r="H37">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>22.82</v>
+      </c>
+      <c r="C38">
+        <v>22.8</v>
+      </c>
+      <c r="D38">
+        <v>22.86</v>
+      </c>
+      <c r="E38">
+        <v>2954275.321</v>
+      </c>
+      <c r="F38">
+        <v>1.66</v>
+      </c>
+      <c r="G38">
+        <v>1709916.3529999999</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816CF05-98E6-45CD-961D-DCDA3E8991C1}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5.29</v>
+      </c>
+      <c r="C6">
+        <v>5.26</v>
+      </c>
+      <c r="D6">
+        <v>5.31</v>
+      </c>
+      <c r="E6">
+        <v>199586.296</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>89116.263999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5.9</v>
+      </c>
+      <c r="D7">
+        <v>6.07</v>
+      </c>
+      <c r="E7">
+        <v>2010526.997</v>
+      </c>
+      <c r="F7">
+        <v>0.17</v>
+      </c>
+      <c r="G7">
+        <v>291932.179</v>
+      </c>
+      <c r="H7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.73</v>
+      </c>
+      <c r="C8">
+        <v>6.67</v>
+      </c>
+      <c r="D8">
+        <v>6.89</v>
+      </c>
+      <c r="E8">
+        <v>5251493.5109999999</v>
+      </c>
+      <c r="F8">
+        <v>0.45</v>
+      </c>
+      <c r="G8">
+        <v>713900.47699999996</v>
+      </c>
+      <c r="H8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7.07</v>
+      </c>
+      <c r="C9">
+        <v>7.01</v>
+      </c>
+      <c r="D9">
+        <v>7.19</v>
+      </c>
+      <c r="E9">
+        <v>5683251.2280000001</v>
+      </c>
+      <c r="F9">
+        <v>0.49</v>
+      </c>
+      <c r="G9">
+        <v>915017.64599999995</v>
+      </c>
+      <c r="H9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7.32</v>
+      </c>
+      <c r="C10">
+        <v>7.26</v>
+      </c>
+      <c r="D10">
+        <v>7.51</v>
+      </c>
+      <c r="E10">
+        <v>49343347.472000003</v>
+      </c>
+      <c r="F10">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G10">
+        <v>7730487.5959999999</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10.92</v>
+      </c>
+      <c r="C11">
+        <v>10.88</v>
+      </c>
+      <c r="D11">
+        <v>10.95</v>
+      </c>
+      <c r="E11">
+        <v>1986340.6839999999</v>
+      </c>
+      <c r="F11">
+        <v>0.17</v>
+      </c>
+      <c r="G11">
+        <v>758910.40800000005</v>
+      </c>
+      <c r="H11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11.01</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11.04</v>
+      </c>
+      <c r="E12">
+        <v>90123.41</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>66869.789000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11.39</v>
+      </c>
+      <c r="C13">
+        <v>11.35</v>
+      </c>
+      <c r="D13">
+        <v>11.41</v>
+      </c>
+      <c r="E13">
+        <v>2035842.983</v>
+      </c>
+      <c r="F13">
+        <v>0.18</v>
+      </c>
+      <c r="G13">
+        <v>1114132.5630000001</v>
+      </c>
+      <c r="H13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11.46</v>
+      </c>
+      <c r="C14">
+        <v>11.43</v>
+      </c>
+      <c r="D14">
+        <v>11.49</v>
+      </c>
+      <c r="E14">
+        <v>591692.77099999995</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>297090.33399999997</v>
+      </c>
+      <c r="H14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12.08</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12.14</v>
+      </c>
+      <c r="E15">
+        <v>511876533.07999998</v>
+      </c>
+      <c r="F15">
+        <v>44.26</v>
+      </c>
+      <c r="G15">
+        <v>197376673.78799999</v>
+      </c>
+      <c r="H15">
+        <v>38.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12.23</v>
+      </c>
+      <c r="C16">
+        <v>12.17</v>
+      </c>
+      <c r="D16">
+        <v>12.26</v>
+      </c>
+      <c r="E16">
+        <v>203759690.90599999</v>
+      </c>
+      <c r="F16">
+        <v>17.62</v>
+      </c>
+      <c r="G16">
+        <v>108560154.815</v>
+      </c>
+      <c r="H16">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>12.9</v>
+      </c>
+      <c r="C17">
+        <v>12.88</v>
+      </c>
+      <c r="D17">
+        <v>12.94</v>
+      </c>
+      <c r="E17">
+        <v>19121711.785</v>
+      </c>
+      <c r="F17">
+        <v>1.65</v>
+      </c>
+      <c r="G17">
+        <v>12256850.623</v>
+      </c>
+      <c r="H17">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>13.06</v>
+      </c>
+      <c r="C18">
+        <v>13.02</v>
+      </c>
+      <c r="D18">
+        <v>13.09</v>
+      </c>
+      <c r="E18">
+        <v>19821101.118999999</v>
+      </c>
+      <c r="F18">
+        <v>1.71</v>
+      </c>
+      <c r="G18">
+        <v>10670798.788000001</v>
+      </c>
+      <c r="H18">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>13.27</v>
+      </c>
+      <c r="C19">
+        <v>13.23</v>
+      </c>
+      <c r="D19">
+        <v>13.31</v>
+      </c>
+      <c r="E19">
+        <v>47446238.258000001</v>
+      </c>
+      <c r="F19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G19">
+        <v>23956875.962000001</v>
+      </c>
+      <c r="H19">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>13.53</v>
+      </c>
+      <c r="C20">
+        <v>13.48</v>
+      </c>
+      <c r="D20">
+        <v>13.56</v>
+      </c>
+      <c r="E20">
+        <v>36396286.100000001</v>
+      </c>
+      <c r="F20">
+        <v>3.15</v>
+      </c>
+      <c r="G20">
+        <v>18590906.912999999</v>
+      </c>
+      <c r="H20">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>13.59</v>
+      </c>
+      <c r="C21">
+        <v>13.57</v>
+      </c>
+      <c r="D21">
+        <v>13.6</v>
+      </c>
+      <c r="E21">
+        <v>639904.94700000004</v>
+      </c>
+      <c r="F21">
+        <v>0.06</v>
+      </c>
+      <c r="G21">
+        <v>810996.28200000001</v>
+      </c>
+      <c r="H21">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>13.66</v>
+      </c>
+      <c r="C22">
+        <v>13.61</v>
+      </c>
+      <c r="D22">
+        <v>13.73</v>
+      </c>
+      <c r="E22">
+        <v>188856856.185</v>
+      </c>
+      <c r="F22">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="G22">
+        <v>93726501.715000004</v>
+      </c>
+      <c r="H22">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>13.85</v>
+      </c>
+      <c r="C23">
+        <v>13.82</v>
+      </c>
+      <c r="D23">
+        <v>13.89</v>
+      </c>
+      <c r="E23">
+        <v>38792241.497000001</v>
+      </c>
+      <c r="F23">
+        <v>3.35</v>
+      </c>
+      <c r="G23">
+        <v>27051921.868999999</v>
+      </c>
+      <c r="H23">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>14.12</v>
+      </c>
+      <c r="C24">
+        <v>14.06</v>
+      </c>
+      <c r="D24">
+        <v>14.15</v>
+      </c>
+      <c r="E24">
+        <v>18508586.175999999</v>
+      </c>
+      <c r="F24">
+        <v>1.6</v>
+      </c>
+      <c r="G24">
+        <v>6547328.3150000004</v>
+      </c>
+      <c r="H24">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>15.5</v>
+      </c>
+      <c r="C25">
+        <v>15.48</v>
+      </c>
+      <c r="D25">
+        <v>15.52</v>
+      </c>
+      <c r="E25">
+        <v>441035.64600000001</v>
+      </c>
+      <c r="F25">
+        <v>0.04</v>
+      </c>
+      <c r="G25">
+        <v>241061.21799999999</v>
+      </c>
+      <c r="H25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>16.5</v>
+      </c>
+      <c r="C26">
+        <v>16.47</v>
+      </c>
+      <c r="D26">
+        <v>16.52</v>
+      </c>
+      <c r="E26">
+        <v>1275593.1869999999</v>
+      </c>
+      <c r="F26">
+        <v>0.11</v>
+      </c>
+      <c r="G26">
+        <v>702737.50699999998</v>
+      </c>
+      <c r="H26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>20.9</v>
+      </c>
+      <c r="C27">
+        <v>20.88</v>
+      </c>
+      <c r="D27">
+        <v>20.94</v>
+      </c>
+      <c r="E27">
+        <v>2434431.5279999999</v>
+      </c>
+      <c r="F27">
+        <v>0.21</v>
+      </c>
+      <c r="G27">
+        <v>1270320.868</v>
+      </c>
+      <c r="H27">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Second_integration.xlsx
+++ b/Second_integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2A258-33C1-4F00-BD08-12211AFC7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032CF9DF-8174-4FBF-A60D-2E40ACC6F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="12" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
   </bookViews>

--- a/Second_integration.xlsx
+++ b/Second_integration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032CF9DF-8174-4FBF-A60D-2E40ACC6F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AFF64-6BBA-4BEC-8766-72A48118AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="12" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="20" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
   </bookViews>
   <sheets>
     <sheet name="SPMEn57" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,14 @@
     <sheet name="SPMEn78" sheetId="11" r:id="rId11"/>
     <sheet name="SPMEn79" sheetId="12" r:id="rId12"/>
     <sheet name="SPMEn80" sheetId="13" r:id="rId13"/>
+    <sheet name="SPMEn81" sheetId="14" r:id="rId14"/>
+    <sheet name="SPMEn82" sheetId="15" r:id="rId15"/>
+    <sheet name="SPMEn83" sheetId="16" r:id="rId16"/>
+    <sheet name="SPMEn96" sheetId="17" r:id="rId17"/>
+    <sheet name="SPMEn97" sheetId="18" r:id="rId18"/>
+    <sheet name="SPMEn98" sheetId="19" r:id="rId19"/>
+    <sheet name="SPMEn99" sheetId="20" r:id="rId20"/>
+    <sheet name="SPMEn100" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="65">
   <si>
     <t>PEAK LIST</t>
   </si>
@@ -183,6 +191,66 @@
   </si>
   <si>
     <t>Number of detected peaks: 32</t>
+  </si>
+  <si>
+    <t>SPMEn81.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.51 - 24.67</t>
+  </si>
+  <si>
+    <t>SPMEn82.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.03 - 26.30</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 13</t>
+  </si>
+  <si>
+    <t>SPMEn83.RAW</t>
+  </si>
+  <si>
+    <t>RT: 18.68 - 24.99</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 18</t>
+  </si>
+  <si>
+    <t>SPMEn96.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.28 - 25.93</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 29</t>
+  </si>
+  <si>
+    <t>SPMEn97.RAW</t>
+  </si>
+  <si>
+    <t>RT: 19.27 - 24.52</t>
+  </si>
+  <si>
+    <t>Number of detected peaks: 30</t>
+  </si>
+  <si>
+    <t>SPMEn98.RAW</t>
+  </si>
+  <si>
+    <t>RT: 18.59 - 24.43</t>
+  </si>
+  <si>
+    <t>SPMEn99.RAW</t>
+  </si>
+  <si>
+    <t>RT: 18.38 - 23.93</t>
+  </si>
+  <si>
+    <t>SPMEn100.RAW</t>
+  </si>
+  <si>
+    <t>RT: 20.77 - 25.69</t>
   </si>
 </sst>
 </file>
@@ -2432,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5517029-7CA3-4532-A0D5-C2A461DD4769}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3311,6 +3379,3578 @@
       </c>
       <c r="H37">
         <v>0.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD0561D-A3A0-47B2-9D6D-2E46637D890D}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>15.09</v>
+      </c>
+      <c r="C6">
+        <v>15.07</v>
+      </c>
+      <c r="D6">
+        <v>15.13</v>
+      </c>
+      <c r="E6">
+        <v>410246.29100000003</v>
+      </c>
+      <c r="F6">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="G6">
+        <v>223220.68599999999</v>
+      </c>
+      <c r="H6">
+        <v>64.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>20.91</v>
+      </c>
+      <c r="C7">
+        <v>20.9</v>
+      </c>
+      <c r="D7">
+        <v>20.95</v>
+      </c>
+      <c r="E7">
+        <v>131866.935</v>
+      </c>
+      <c r="F7">
+        <v>24.32</v>
+      </c>
+      <c r="G7">
+        <v>121635.39</v>
+      </c>
+      <c r="H7">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26809AD-F73B-499F-8F0F-B8CBE5F9151E}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.32</v>
+      </c>
+      <c r="C6">
+        <v>7.26</v>
+      </c>
+      <c r="D6">
+        <v>7.4</v>
+      </c>
+      <c r="E6">
+        <v>1359265.0859999999</v>
+      </c>
+      <c r="F6">
+        <v>1.84</v>
+      </c>
+      <c r="G6">
+        <v>264151.53200000001</v>
+      </c>
+      <c r="H6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D7">
+        <v>8.31</v>
+      </c>
+      <c r="E7">
+        <v>1552130.44</v>
+      </c>
+      <c r="F7">
+        <v>2.1</v>
+      </c>
+      <c r="G7">
+        <v>457172.13900000002</v>
+      </c>
+      <c r="H7">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12.06</v>
+      </c>
+      <c r="C8">
+        <v>12.03</v>
+      </c>
+      <c r="D8">
+        <v>12.12</v>
+      </c>
+      <c r="E8">
+        <v>1853505.746</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>863352.63</v>
+      </c>
+      <c r="H8">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>12.2</v>
+      </c>
+      <c r="C9">
+        <v>12.16</v>
+      </c>
+      <c r="D9">
+        <v>12.26</v>
+      </c>
+      <c r="E9">
+        <v>22841653.829</v>
+      </c>
+      <c r="F9">
+        <v>30.87</v>
+      </c>
+      <c r="G9">
+        <v>10680774.446</v>
+      </c>
+      <c r="H9">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>12.9</v>
+      </c>
+      <c r="C10">
+        <v>12.89</v>
+      </c>
+      <c r="D10">
+        <v>12.94</v>
+      </c>
+      <c r="E10">
+        <v>250920.41099999999</v>
+      </c>
+      <c r="F10">
+        <v>0.34</v>
+      </c>
+      <c r="G10">
+        <v>146782.408</v>
+      </c>
+      <c r="H10">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>13.07</v>
+      </c>
+      <c r="C11">
+        <v>13.03</v>
+      </c>
+      <c r="D11">
+        <v>13.09</v>
+      </c>
+      <c r="E11">
+        <v>1324436.7050000001</v>
+      </c>
+      <c r="F11">
+        <v>1.79</v>
+      </c>
+      <c r="G11">
+        <v>762786.49199999997</v>
+      </c>
+      <c r="H11">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>13.27</v>
+      </c>
+      <c r="C12">
+        <v>13.24</v>
+      </c>
+      <c r="D12">
+        <v>13.3</v>
+      </c>
+      <c r="E12">
+        <v>1461529.176</v>
+      </c>
+      <c r="F12">
+        <v>1.98</v>
+      </c>
+      <c r="G12">
+        <v>808036.64599999995</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>13.53</v>
+      </c>
+      <c r="C13">
+        <v>13.47</v>
+      </c>
+      <c r="D13">
+        <v>13.56</v>
+      </c>
+      <c r="E13">
+        <v>2693290.0290000001</v>
+      </c>
+      <c r="F13">
+        <v>3.64</v>
+      </c>
+      <c r="G13">
+        <v>1191673.044</v>
+      </c>
+      <c r="H13">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>13.59</v>
+      </c>
+      <c r="C14">
+        <v>13.57</v>
+      </c>
+      <c r="D14">
+        <v>13.61</v>
+      </c>
+      <c r="E14">
+        <v>320717.56300000002</v>
+      </c>
+      <c r="F14">
+        <v>0.43</v>
+      </c>
+      <c r="G14">
+        <v>239233.79500000001</v>
+      </c>
+      <c r="H14">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>13.65</v>
+      </c>
+      <c r="C15">
+        <v>13.62</v>
+      </c>
+      <c r="D15">
+        <v>13.68</v>
+      </c>
+      <c r="E15">
+        <v>3614852.3330000001</v>
+      </c>
+      <c r="F15">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G15">
+        <v>2085805.7919999999</v>
+      </c>
+      <c r="H15">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>13.85</v>
+      </c>
+      <c r="C16">
+        <v>13.82</v>
+      </c>
+      <c r="D16">
+        <v>13.89</v>
+      </c>
+      <c r="E16">
+        <v>26726324.440000001</v>
+      </c>
+      <c r="F16">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="G16">
+        <v>16915476.399999999</v>
+      </c>
+      <c r="H16">
+        <v>41.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>15.99</v>
+      </c>
+      <c r="C17">
+        <v>15.96</v>
+      </c>
+      <c r="D17">
+        <v>16.04</v>
+      </c>
+      <c r="E17">
+        <v>8592460.023</v>
+      </c>
+      <c r="F17">
+        <v>11.61</v>
+      </c>
+      <c r="G17">
+        <v>5154900.04</v>
+      </c>
+      <c r="H17">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C18">
+        <v>17.72</v>
+      </c>
+      <c r="D18">
+        <v>17.78</v>
+      </c>
+      <c r="E18">
+        <v>1406085.2649999999</v>
+      </c>
+      <c r="F18">
+        <v>1.9</v>
+      </c>
+      <c r="G18">
+        <v>835314.17799999996</v>
+      </c>
+      <c r="H18">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864F6F15-7644-4E4E-95DC-8E683CEE2040}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6.71</v>
+      </c>
+      <c r="C6">
+        <v>6.65</v>
+      </c>
+      <c r="D6">
+        <v>6.8</v>
+      </c>
+      <c r="E6">
+        <v>1819425.446</v>
+      </c>
+      <c r="F6">
+        <v>0.59</v>
+      </c>
+      <c r="G6">
+        <v>321133.94</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>11.39</v>
+      </c>
+      <c r="C7">
+        <v>11.36</v>
+      </c>
+      <c r="D7">
+        <v>11.41</v>
+      </c>
+      <c r="E7">
+        <v>266876.92</v>
+      </c>
+      <c r="F7">
+        <v>0.09</v>
+      </c>
+      <c r="G7">
+        <v>172827.99799999999</v>
+      </c>
+      <c r="H7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12.06</v>
+      </c>
+      <c r="C8">
+        <v>12.01</v>
+      </c>
+      <c r="D8">
+        <v>12.11</v>
+      </c>
+      <c r="E8">
+        <v>10744438.791999999</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
+        <v>5125063.0729999999</v>
+      </c>
+      <c r="H8">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>12.2</v>
+      </c>
+      <c r="C9">
+        <v>12.17</v>
+      </c>
+      <c r="D9">
+        <v>12.24</v>
+      </c>
+      <c r="E9">
+        <v>20623911.057999998</v>
+      </c>
+      <c r="F9">
+        <v>6.73</v>
+      </c>
+      <c r="G9">
+        <v>9480935.9519999996</v>
+      </c>
+      <c r="H9">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>12.92</v>
+      </c>
+      <c r="C10">
+        <v>12.86</v>
+      </c>
+      <c r="D10">
+        <v>12.96</v>
+      </c>
+      <c r="E10">
+        <v>247443031.86700001</v>
+      </c>
+      <c r="F10">
+        <v>80.7</v>
+      </c>
+      <c r="G10">
+        <v>133081029.237</v>
+      </c>
+      <c r="H10">
+        <v>81.510000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>13.07</v>
+      </c>
+      <c r="C11">
+        <v>13.05</v>
+      </c>
+      <c r="D11">
+        <v>13.09</v>
+      </c>
+      <c r="E11">
+        <v>1044612.355</v>
+      </c>
+      <c r="F11">
+        <v>0.34</v>
+      </c>
+      <c r="G11">
+        <v>658805.52899999998</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>13.27</v>
+      </c>
+      <c r="C12">
+        <v>13.24</v>
+      </c>
+      <c r="D12">
+        <v>13.31</v>
+      </c>
+      <c r="E12">
+        <v>6797599.2520000003</v>
+      </c>
+      <c r="F12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G12">
+        <v>4157461.5359999998</v>
+      </c>
+      <c r="H12">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>13.53</v>
+      </c>
+      <c r="C13">
+        <v>13.48</v>
+      </c>
+      <c r="D13">
+        <v>13.55</v>
+      </c>
+      <c r="E13">
+        <v>2143248.8259999999</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+      <c r="G13">
+        <v>1023941.703</v>
+      </c>
+      <c r="H13">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>13.6</v>
+      </c>
+      <c r="C14">
+        <v>13.56</v>
+      </c>
+      <c r="D14">
+        <v>13.61</v>
+      </c>
+      <c r="E14">
+        <v>2452944.3709999998</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>1637595.243</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>13.66</v>
+      </c>
+      <c r="C15">
+        <v>13.62</v>
+      </c>
+      <c r="D15">
+        <v>13.68</v>
+      </c>
+      <c r="E15">
+        <v>7311997.9790000003</v>
+      </c>
+      <c r="F15">
+        <v>2.38</v>
+      </c>
+      <c r="G15">
+        <v>4014253.023</v>
+      </c>
+      <c r="H15">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>13.85</v>
+      </c>
+      <c r="C16">
+        <v>13.83</v>
+      </c>
+      <c r="D16">
+        <v>13.88</v>
+      </c>
+      <c r="E16">
+        <v>1292008.2930000001</v>
+      </c>
+      <c r="F16">
+        <v>0.42</v>
+      </c>
+      <c r="G16">
+        <v>971817.35199999996</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>14.09</v>
+      </c>
+      <c r="C17">
+        <v>14.06</v>
+      </c>
+      <c r="D17">
+        <v>14.12</v>
+      </c>
+      <c r="E17">
+        <v>1058788.5009999999</v>
+      </c>
+      <c r="F17">
+        <v>0.35</v>
+      </c>
+      <c r="G17">
+        <v>528991.85</v>
+      </c>
+      <c r="H17">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>15.5</v>
+      </c>
+      <c r="C18">
+        <v>15.46</v>
+      </c>
+      <c r="D18">
+        <v>15.52</v>
+      </c>
+      <c r="E18">
+        <v>211992.61</v>
+      </c>
+      <c r="F18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G18">
+        <v>86094.349000000002</v>
+      </c>
+      <c r="H18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>15.99</v>
+      </c>
+      <c r="C19">
+        <v>15.96</v>
+      </c>
+      <c r="D19">
+        <v>16.02</v>
+      </c>
+      <c r="E19">
+        <v>1154657.5379999999</v>
+      </c>
+      <c r="F19">
+        <v>0.38</v>
+      </c>
+      <c r="G19">
+        <v>700261.26599999995</v>
+      </c>
+      <c r="H19">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C20">
+        <v>16.47</v>
+      </c>
+      <c r="D20">
+        <v>16.55</v>
+      </c>
+      <c r="E20">
+        <v>1056631.415</v>
+      </c>
+      <c r="F20">
+        <v>0.34</v>
+      </c>
+      <c r="G20">
+        <v>608598.81200000003</v>
+      </c>
+      <c r="H20">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C21">
+        <v>17.72</v>
+      </c>
+      <c r="D21">
+        <v>17.78</v>
+      </c>
+      <c r="E21">
+        <v>469916.67200000002</v>
+      </c>
+      <c r="F21">
+        <v>0.15</v>
+      </c>
+      <c r="G21">
+        <v>276548.86700000003</v>
+      </c>
+      <c r="H21">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>18.04</v>
+      </c>
+      <c r="C22">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="D22">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E22">
+        <v>158809.11600000001</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
+      </c>
+      <c r="G22">
+        <v>101225.337</v>
+      </c>
+      <c r="H22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>20.91</v>
+      </c>
+      <c r="C23">
+        <v>20.89</v>
+      </c>
+      <c r="D23">
+        <v>20.95</v>
+      </c>
+      <c r="E23">
+        <v>554764.23800000001</v>
+      </c>
+      <c r="F23">
+        <v>0.18</v>
+      </c>
+      <c r="G23">
+        <v>314186.451</v>
+      </c>
+      <c r="H23">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB521D2-C14A-4596-9F8F-89A3CB671450}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5.95</v>
+      </c>
+      <c r="C6">
+        <v>5.92</v>
+      </c>
+      <c r="D6">
+        <v>6.03</v>
+      </c>
+      <c r="E6">
+        <v>268202.696</v>
+      </c>
+      <c r="F6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6">
+        <v>64096.733</v>
+      </c>
+      <c r="H6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7.05</v>
+      </c>
+      <c r="C7">
+        <v>6.99</v>
+      </c>
+      <c r="D7">
+        <v>7.2</v>
+      </c>
+      <c r="E7">
+        <v>1449983.044</v>
+      </c>
+      <c r="F7">
+        <v>0.76</v>
+      </c>
+      <c r="G7">
+        <v>247806.52799999999</v>
+      </c>
+      <c r="H7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7.31</v>
+      </c>
+      <c r="C8">
+        <v>7.24</v>
+      </c>
+      <c r="D8">
+        <v>7.52</v>
+      </c>
+      <c r="E8">
+        <v>98625435.790999994</v>
+      </c>
+      <c r="F8">
+        <v>51.41</v>
+      </c>
+      <c r="G8">
+        <v>14791521.532</v>
+      </c>
+      <c r="H8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>10.9</v>
+      </c>
+      <c r="C9">
+        <v>10.88</v>
+      </c>
+      <c r="D9">
+        <v>10.99</v>
+      </c>
+      <c r="E9">
+        <v>660239.99600000004</v>
+      </c>
+      <c r="F9">
+        <v>0.34</v>
+      </c>
+      <c r="G9">
+        <v>232131.05499999999</v>
+      </c>
+      <c r="H9">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>11.39</v>
+      </c>
+      <c r="C10">
+        <v>11.33</v>
+      </c>
+      <c r="D10">
+        <v>11.42</v>
+      </c>
+      <c r="E10">
+        <v>4864471.892</v>
+      </c>
+      <c r="F10">
+        <v>2.54</v>
+      </c>
+      <c r="G10">
+        <v>2419228.0550000002</v>
+      </c>
+      <c r="H10">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>11.46</v>
+      </c>
+      <c r="C11">
+        <v>11.43</v>
+      </c>
+      <c r="D11">
+        <v>11.49</v>
+      </c>
+      <c r="E11">
+        <v>1414555.1640000001</v>
+      </c>
+      <c r="F11">
+        <v>0.74</v>
+      </c>
+      <c r="G11">
+        <v>712474.54399999999</v>
+      </c>
+      <c r="H11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>12.06</v>
+      </c>
+      <c r="C12">
+        <v>12.02</v>
+      </c>
+      <c r="D12">
+        <v>12.11</v>
+      </c>
+      <c r="E12">
+        <v>1507874.118</v>
+      </c>
+      <c r="F12">
+        <v>0.79</v>
+      </c>
+      <c r="G12">
+        <v>852274.55299999996</v>
+      </c>
+      <c r="H12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>12.2</v>
+      </c>
+      <c r="C13">
+        <v>12.14</v>
+      </c>
+      <c r="D13">
+        <v>12.26</v>
+      </c>
+      <c r="E13">
+        <v>27890503.112</v>
+      </c>
+      <c r="F13">
+        <v>14.54</v>
+      </c>
+      <c r="G13">
+        <v>14033353.221000001</v>
+      </c>
+      <c r="H13">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13.06</v>
+      </c>
+      <c r="C14">
+        <v>13.02</v>
+      </c>
+      <c r="D14">
+        <v>13.09</v>
+      </c>
+      <c r="E14">
+        <v>1235447.872</v>
+      </c>
+      <c r="F14">
+        <v>0.64</v>
+      </c>
+      <c r="G14">
+        <v>677271.90899999999</v>
+      </c>
+      <c r="H14">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>13.18</v>
+      </c>
+      <c r="C15">
+        <v>13.14</v>
+      </c>
+      <c r="D15">
+        <v>13.2</v>
+      </c>
+      <c r="E15">
+        <v>304869.57199999999</v>
+      </c>
+      <c r="F15">
+        <v>0.16</v>
+      </c>
+      <c r="G15">
+        <v>161620.478</v>
+      </c>
+      <c r="H15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>13.51</v>
+      </c>
+      <c r="C16">
+        <v>13.47</v>
+      </c>
+      <c r="D16">
+        <v>13.59</v>
+      </c>
+      <c r="E16">
+        <v>7575383.0630000001</v>
+      </c>
+      <c r="F16">
+        <v>3.95</v>
+      </c>
+      <c r="G16">
+        <v>3364336.62</v>
+      </c>
+      <c r="H16">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>13.66</v>
+      </c>
+      <c r="C17">
+        <v>13.62</v>
+      </c>
+      <c r="D17">
+        <v>13.71</v>
+      </c>
+      <c r="E17">
+        <v>832542.18200000003</v>
+      </c>
+      <c r="F17">
+        <v>0.43</v>
+      </c>
+      <c r="G17">
+        <v>318771.66899999999</v>
+      </c>
+      <c r="H17">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>13.79</v>
+      </c>
+      <c r="C18">
+        <v>13.77</v>
+      </c>
+      <c r="D18">
+        <v>13.83</v>
+      </c>
+      <c r="E18">
+        <v>2044655.564</v>
+      </c>
+      <c r="F18">
+        <v>1.07</v>
+      </c>
+      <c r="G18">
+        <v>1084903.8470000001</v>
+      </c>
+      <c r="H18">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>14.08</v>
+      </c>
+      <c r="C19">
+        <v>14.06</v>
+      </c>
+      <c r="D19">
+        <v>14.13</v>
+      </c>
+      <c r="E19">
+        <v>1084113.446</v>
+      </c>
+      <c r="F19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G19">
+        <v>637906.62199999997</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>14.26</v>
+      </c>
+      <c r="C20">
+        <v>14.22</v>
+      </c>
+      <c r="D20">
+        <v>14.3</v>
+      </c>
+      <c r="E20">
+        <v>2604547.923</v>
+      </c>
+      <c r="F20">
+        <v>1.36</v>
+      </c>
+      <c r="G20">
+        <v>1433225.0830000001</v>
+      </c>
+      <c r="H20">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>14.69</v>
+      </c>
+      <c r="C21">
+        <v>14.67</v>
+      </c>
+      <c r="D21">
+        <v>14.72</v>
+      </c>
+      <c r="E21">
+        <v>233041.89600000001</v>
+      </c>
+      <c r="F21">
+        <v>0.12</v>
+      </c>
+      <c r="G21">
+        <v>153959.266</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>15.1</v>
+      </c>
+      <c r="C22">
+        <v>15.07</v>
+      </c>
+      <c r="D22">
+        <v>15.14</v>
+      </c>
+      <c r="E22">
+        <v>401104.114</v>
+      </c>
+      <c r="F22">
+        <v>0.21</v>
+      </c>
+      <c r="G22">
+        <v>207789.378</v>
+      </c>
+      <c r="H22">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>15.37</v>
+      </c>
+      <c r="C23">
+        <v>15.35</v>
+      </c>
+      <c r="D23">
+        <v>15.39</v>
+      </c>
+      <c r="E23">
+        <v>70216.206000000006</v>
+      </c>
+      <c r="F23">
+        <v>0.04</v>
+      </c>
+      <c r="G23">
+        <v>60344.841999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>15.5</v>
+      </c>
+      <c r="C24">
+        <v>15.48</v>
+      </c>
+      <c r="D24">
+        <v>15.54</v>
+      </c>
+      <c r="E24">
+        <v>533635.15099999995</v>
+      </c>
+      <c r="F24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G24">
+        <v>296451.39199999999</v>
+      </c>
+      <c r="H24">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>15.63</v>
+      </c>
+      <c r="C25">
+        <v>15.58</v>
+      </c>
+      <c r="D25">
+        <v>15.66</v>
+      </c>
+      <c r="E25">
+        <v>180848.04699999999</v>
+      </c>
+      <c r="F25">
+        <v>0.09</v>
+      </c>
+      <c r="G25">
+        <v>75413.240000000005</v>
+      </c>
+      <c r="H25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>16.7</v>
+      </c>
+      <c r="C26">
+        <v>16.68</v>
+      </c>
+      <c r="D26">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E26">
+        <v>191803.785</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>137936.342</v>
+      </c>
+      <c r="H26">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>16.88</v>
+      </c>
+      <c r="C27">
+        <v>16.82</v>
+      </c>
+      <c r="D27">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E27">
+        <v>11055739.176999999</v>
+      </c>
+      <c r="F27">
+        <v>5.76</v>
+      </c>
+      <c r="G27">
+        <v>3453161.15</v>
+      </c>
+      <c r="H27">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="C28">
+        <v>17.54</v>
+      </c>
+      <c r="D28">
+        <v>17.62</v>
+      </c>
+      <c r="E28">
+        <v>1173310.432</v>
+      </c>
+      <c r="F28">
+        <v>0.61</v>
+      </c>
+      <c r="G28">
+        <v>707907.91799999995</v>
+      </c>
+      <c r="H28">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>17.75</v>
+      </c>
+      <c r="C29">
+        <v>17.71</v>
+      </c>
+      <c r="D29">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="E29">
+        <v>499489.31099999999</v>
+      </c>
+      <c r="F29">
+        <v>0.26</v>
+      </c>
+      <c r="G29">
+        <v>236496.54</v>
+      </c>
+      <c r="H29">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>18.03</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>18.05</v>
+      </c>
+      <c r="E30">
+        <v>134998.95000000001</v>
+      </c>
+      <c r="F30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G30">
+        <v>97126.173999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C31">
+        <v>18.96</v>
+      </c>
+      <c r="D31">
+        <v>19.05</v>
+      </c>
+      <c r="E31">
+        <v>16933470.677000001</v>
+      </c>
+      <c r="F31">
+        <v>8.83</v>
+      </c>
+      <c r="G31">
+        <v>10088430.541999999</v>
+      </c>
+      <c r="H31">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C32">
+        <v>19.07</v>
+      </c>
+      <c r="D32">
+        <v>19.16</v>
+      </c>
+      <c r="E32">
+        <v>5496111.4000000004</v>
+      </c>
+      <c r="F32">
+        <v>2.86</v>
+      </c>
+      <c r="G32">
+        <v>2877698.3679999998</v>
+      </c>
+      <c r="H32">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>20.91</v>
+      </c>
+      <c r="C33">
+        <v>20.89</v>
+      </c>
+      <c r="D33">
+        <v>20.94</v>
+      </c>
+      <c r="E33">
+        <v>133792.386</v>
+      </c>
+      <c r="F33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G33">
+        <v>96460.517999999996</v>
+      </c>
+      <c r="H33">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>22.13</v>
+      </c>
+      <c r="C34">
+        <v>22.09</v>
+      </c>
+      <c r="D34">
+        <v>22.18</v>
+      </c>
+      <c r="E34">
+        <v>2446444.9270000001</v>
+      </c>
+      <c r="F34">
+        <v>1.28</v>
+      </c>
+      <c r="G34">
+        <v>1340793.76</v>
+      </c>
+      <c r="H34">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043E5EC-6D04-4409-A11A-E7C5CE623C10}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5.33</v>
+      </c>
+      <c r="C6">
+        <v>5.32</v>
+      </c>
+      <c r="D6">
+        <v>5.37</v>
+      </c>
+      <c r="E6">
+        <v>69087.05</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>45883.055999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.96</v>
+      </c>
+      <c r="C7">
+        <v>5.92</v>
+      </c>
+      <c r="D7">
+        <v>6.08</v>
+      </c>
+      <c r="E7">
+        <v>639377.78799999994</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>106969.37</v>
+      </c>
+      <c r="H7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.72</v>
+      </c>
+      <c r="C8">
+        <v>6.67</v>
+      </c>
+      <c r="D8">
+        <v>6.84</v>
+      </c>
+      <c r="E8">
+        <v>1187432.0209999999</v>
+      </c>
+      <c r="F8">
+        <v>0.92</v>
+      </c>
+      <c r="G8">
+        <v>206249.054</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7.07</v>
+      </c>
+      <c r="C9">
+        <v>6.99</v>
+      </c>
+      <c r="D9">
+        <v>7.09</v>
+      </c>
+      <c r="E9">
+        <v>217624.576</v>
+      </c>
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+      <c r="G9">
+        <v>69952.195999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7.32</v>
+      </c>
+      <c r="C10">
+        <v>7.25</v>
+      </c>
+      <c r="D10">
+        <v>7.52</v>
+      </c>
+      <c r="E10">
+        <v>22247833.302000001</v>
+      </c>
+      <c r="F10">
+        <v>17.25</v>
+      </c>
+      <c r="G10">
+        <v>3306752.5469999998</v>
+      </c>
+      <c r="H10">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10.9</v>
+      </c>
+      <c r="C11">
+        <v>10.87</v>
+      </c>
+      <c r="D11">
+        <v>10.96</v>
+      </c>
+      <c r="E11">
+        <v>5827418.5410000002</v>
+      </c>
+      <c r="F11">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G11">
+        <v>2347669.8309999998</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11.04</v>
+      </c>
+      <c r="C12">
+        <v>10.99</v>
+      </c>
+      <c r="D12">
+        <v>11.04</v>
+      </c>
+      <c r="E12">
+        <v>784445.79200000002</v>
+      </c>
+      <c r="F12">
+        <v>0.61</v>
+      </c>
+      <c r="G12">
+        <v>455452.16100000002</v>
+      </c>
+      <c r="H12">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11.39</v>
+      </c>
+      <c r="C13">
+        <v>11.31</v>
+      </c>
+      <c r="D13">
+        <v>11.42</v>
+      </c>
+      <c r="E13">
+        <v>3791383.6979999999</v>
+      </c>
+      <c r="F13">
+        <v>2.94</v>
+      </c>
+      <c r="G13">
+        <v>1520195.9820000001</v>
+      </c>
+      <c r="H13">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11.46</v>
+      </c>
+      <c r="C14">
+        <v>11.43</v>
+      </c>
+      <c r="D14">
+        <v>11.49</v>
+      </c>
+      <c r="E14">
+        <v>1179459.808</v>
+      </c>
+      <c r="F14">
+        <v>0.91</v>
+      </c>
+      <c r="G14">
+        <v>620013.74800000002</v>
+      </c>
+      <c r="H14">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>12.2</v>
+      </c>
+      <c r="C15">
+        <v>12.13</v>
+      </c>
+      <c r="D15">
+        <v>12.25</v>
+      </c>
+      <c r="E15">
+        <v>34179157.395000003</v>
+      </c>
+      <c r="F15">
+        <v>26.5</v>
+      </c>
+      <c r="G15">
+        <v>17622199.662999999</v>
+      </c>
+      <c r="H15">
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>12.9</v>
+      </c>
+      <c r="C16">
+        <v>12.88</v>
+      </c>
+      <c r="D16">
+        <v>12.93</v>
+      </c>
+      <c r="E16">
+        <v>196288.321</v>
+      </c>
+      <c r="F16">
+        <v>0.15</v>
+      </c>
+      <c r="G16">
+        <v>137115.79399999999</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>13.06</v>
+      </c>
+      <c r="C17">
+        <v>13.01</v>
+      </c>
+      <c r="D17">
+        <v>13.09</v>
+      </c>
+      <c r="E17">
+        <v>6068589.1509999996</v>
+      </c>
+      <c r="F17">
+        <v>4.7</v>
+      </c>
+      <c r="G17">
+        <v>3464007.5260000001</v>
+      </c>
+      <c r="H17">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>13.17</v>
+      </c>
+      <c r="C18">
+        <v>13.13</v>
+      </c>
+      <c r="D18">
+        <v>13.19</v>
+      </c>
+      <c r="E18">
+        <v>293729.62199999997</v>
+      </c>
+      <c r="F18">
+        <v>0.23</v>
+      </c>
+      <c r="G18">
+        <v>154486.47</v>
+      </c>
+      <c r="H18">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>13.51</v>
+      </c>
+      <c r="C19">
+        <v>13.47</v>
+      </c>
+      <c r="D19">
+        <v>13.59</v>
+      </c>
+      <c r="E19">
+        <v>12456985.273</v>
+      </c>
+      <c r="F19">
+        <v>9.66</v>
+      </c>
+      <c r="G19">
+        <v>6323712.2319999998</v>
+      </c>
+      <c r="H19">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>13.66</v>
+      </c>
+      <c r="C20">
+        <v>13.62</v>
+      </c>
+      <c r="D20">
+        <v>13.69</v>
+      </c>
+      <c r="E20">
+        <v>675800.23699999996</v>
+      </c>
+      <c r="F20">
+        <v>0.52</v>
+      </c>
+      <c r="G20">
+        <v>277021.33</v>
+      </c>
+      <c r="H20">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>13.79</v>
+      </c>
+      <c r="C21">
+        <v>13.75</v>
+      </c>
+      <c r="D21">
+        <v>13.83</v>
+      </c>
+      <c r="E21">
+        <v>5196382.6490000002</v>
+      </c>
+      <c r="F21">
+        <v>4.03</v>
+      </c>
+      <c r="G21">
+        <v>3082312.4750000001</v>
+      </c>
+      <c r="H21">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>14.08</v>
+      </c>
+      <c r="C22">
+        <v>14.06</v>
+      </c>
+      <c r="D22">
+        <v>14.1</v>
+      </c>
+      <c r="E22">
+        <v>351209.91200000001</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22">
+        <v>208930.557</v>
+      </c>
+      <c r="H22">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>14.25</v>
+      </c>
+      <c r="C23">
+        <v>14.21</v>
+      </c>
+      <c r="D23">
+        <v>14.28</v>
+      </c>
+      <c r="E23">
+        <v>6673478.7800000003</v>
+      </c>
+      <c r="F23">
+        <v>5.17</v>
+      </c>
+      <c r="G23">
+        <v>4305601.9689999996</v>
+      </c>
+      <c r="H23">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>14.69</v>
+      </c>
+      <c r="C24">
+        <v>14.67</v>
+      </c>
+      <c r="D24">
+        <v>14.72</v>
+      </c>
+      <c r="E24">
+        <v>375033.614</v>
+      </c>
+      <c r="F24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G24">
+        <v>254043.33900000001</v>
+      </c>
+      <c r="H24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>15.1</v>
+      </c>
+      <c r="C25">
+        <v>15.07</v>
+      </c>
+      <c r="D25">
+        <v>15.14</v>
+      </c>
+      <c r="E25">
+        <v>1195884.452</v>
+      </c>
+      <c r="F25">
+        <v>0.93</v>
+      </c>
+      <c r="G25">
+        <v>641502.50600000005</v>
+      </c>
+      <c r="H25">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>15.5</v>
+      </c>
+      <c r="C26">
+        <v>15.48</v>
+      </c>
+      <c r="D26">
+        <v>15.52</v>
+      </c>
+      <c r="E26">
+        <v>268963.32299999997</v>
+      </c>
+      <c r="F26">
+        <v>0.21</v>
+      </c>
+      <c r="G26">
+        <v>171967.011</v>
+      </c>
+      <c r="H26">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>15.63</v>
+      </c>
+      <c r="C27">
+        <v>15.62</v>
+      </c>
+      <c r="D27">
+        <v>15.64</v>
+      </c>
+      <c r="E27">
+        <v>24034.466</v>
+      </c>
+      <c r="F27">
+        <v>0.02</v>
+      </c>
+      <c r="G27">
+        <v>31447.177</v>
+      </c>
+      <c r="H27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>16.7</v>
+      </c>
+      <c r="C28">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="D28">
+        <v>16.73</v>
+      </c>
+      <c r="E28">
+        <v>5074597.4390000002</v>
+      </c>
+      <c r="F28">
+        <v>3.93</v>
+      </c>
+      <c r="G28">
+        <v>2908429.3870000001</v>
+      </c>
+      <c r="H28">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>16.88</v>
+      </c>
+      <c r="C29">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="D29">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="E29">
+        <v>5541436.5029999996</v>
+      </c>
+      <c r="F29">
+        <v>4.3</v>
+      </c>
+      <c r="G29">
+        <v>1820886.7050000001</v>
+      </c>
+      <c r="H29">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="C30">
+        <v>17.54</v>
+      </c>
+      <c r="D30">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E30">
+        <v>693134.52399999998</v>
+      </c>
+      <c r="F30">
+        <v>0.54</v>
+      </c>
+      <c r="G30">
+        <v>409895.66200000001</v>
+      </c>
+      <c r="H30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>18.03</v>
+      </c>
+      <c r="C31">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D31">
+        <v>18.05</v>
+      </c>
+      <c r="E31">
+        <v>663318.16</v>
+      </c>
+      <c r="F31">
+        <v>0.51</v>
+      </c>
+      <c r="G31">
+        <v>419306.891</v>
+      </c>
+      <c r="H31">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C32">
+        <v>18.96</v>
+      </c>
+      <c r="D32">
+        <v>19.05</v>
+      </c>
+      <c r="E32">
+        <v>2021745.892</v>
+      </c>
+      <c r="F32">
+        <v>1.57</v>
+      </c>
+      <c r="G32">
+        <v>1111657.156</v>
+      </c>
+      <c r="H32">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C33">
+        <v>19.07</v>
+      </c>
+      <c r="D33">
+        <v>19.16</v>
+      </c>
+      <c r="E33">
+        <v>7158714.4699999997</v>
+      </c>
+      <c r="F33">
+        <v>5.55</v>
+      </c>
+      <c r="G33">
+        <v>4469237.1050000004</v>
+      </c>
+      <c r="H33">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>20.9</v>
+      </c>
+      <c r="C34">
+        <v>20.86</v>
+      </c>
+      <c r="D34">
+        <v>20.94</v>
+      </c>
+      <c r="E34">
+        <v>193740.788</v>
+      </c>
+      <c r="F34">
+        <v>0.15</v>
+      </c>
+      <c r="G34">
+        <v>79817.854000000007</v>
+      </c>
+      <c r="H34">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>22.13</v>
+      </c>
+      <c r="C35">
+        <v>22.08</v>
+      </c>
+      <c r="D35">
+        <v>22.18</v>
+      </c>
+      <c r="E35">
+        <v>3736744.821</v>
+      </c>
+      <c r="F35">
+        <v>2.9</v>
+      </c>
+      <c r="G35">
+        <v>2087898.13</v>
+      </c>
+      <c r="H35">
+        <v>3.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436F10D2-C384-4C49-B3F5-D869FE72F96F}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5.31</v>
+      </c>
+      <c r="C6">
+        <v>5.2</v>
+      </c>
+      <c r="D6">
+        <v>5.48</v>
+      </c>
+      <c r="E6">
+        <v>3654525.764</v>
+      </c>
+      <c r="F6">
+        <v>1.64</v>
+      </c>
+      <c r="G6">
+        <v>391807.37</v>
+      </c>
+      <c r="H6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5.91</v>
+      </c>
+      <c r="D7">
+        <v>6.04</v>
+      </c>
+      <c r="E7">
+        <v>448611.49300000002</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>85035.434999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.74</v>
+      </c>
+      <c r="C8">
+        <v>6.66</v>
+      </c>
+      <c r="D8">
+        <v>6.99</v>
+      </c>
+      <c r="E8">
+        <v>25822108.050000001</v>
+      </c>
+      <c r="F8">
+        <v>11.6</v>
+      </c>
+      <c r="G8">
+        <v>2812316.9840000002</v>
+      </c>
+      <c r="H8">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7.07</v>
+      </c>
+      <c r="C9">
+        <v>7.04</v>
+      </c>
+      <c r="D9">
+        <v>7.09</v>
+      </c>
+      <c r="E9">
+        <v>76699.73</v>
+      </c>
+      <c r="F9">
+        <v>0.03</v>
+      </c>
+      <c r="G9">
+        <v>44253.26</v>
+      </c>
+      <c r="H9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7.3</v>
+      </c>
+      <c r="C10">
+        <v>7.27</v>
+      </c>
+      <c r="D10">
+        <v>7.36</v>
+      </c>
+      <c r="E10">
+        <v>233806.4</v>
+      </c>
+      <c r="F10">
+        <v>0.11</v>
+      </c>
+      <c r="G10">
+        <v>75421.788</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11.01</v>
+      </c>
+      <c r="C11">
+        <v>10.98</v>
+      </c>
+      <c r="D11">
+        <v>11.08</v>
+      </c>
+      <c r="E11">
+        <v>3357098.22</v>
+      </c>
+      <c r="F11">
+        <v>1.51</v>
+      </c>
+      <c r="G11">
+        <v>1074245.2409999999</v>
+      </c>
+      <c r="H11">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11.37</v>
+      </c>
+      <c r="C12">
+        <v>11.3</v>
+      </c>
+      <c r="D12">
+        <v>11.41</v>
+      </c>
+      <c r="E12">
+        <v>2302195.8820000002</v>
+      </c>
+      <c r="F12">
+        <v>1.03</v>
+      </c>
+      <c r="G12">
+        <v>905181.43</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>12.06</v>
+      </c>
+      <c r="C13">
+        <v>12.03</v>
+      </c>
+      <c r="D13">
+        <v>12.07</v>
+      </c>
+      <c r="E13">
+        <v>154118.33600000001</v>
+      </c>
+      <c r="F13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13">
+        <v>122430.97</v>
+      </c>
+      <c r="H13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12.2</v>
+      </c>
+      <c r="C14">
+        <v>12.17</v>
+      </c>
+      <c r="D14">
+        <v>12.24</v>
+      </c>
+      <c r="E14">
+        <v>839238.929</v>
+      </c>
+      <c r="F14">
+        <v>0.38</v>
+      </c>
+      <c r="G14">
+        <v>442204.5</v>
+      </c>
+      <c r="H14">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>12.9</v>
+      </c>
+      <c r="C15">
+        <v>12.88</v>
+      </c>
+      <c r="D15">
+        <v>12.92</v>
+      </c>
+      <c r="E15">
+        <v>720226.26199999999</v>
+      </c>
+      <c r="F15">
+        <v>0.32</v>
+      </c>
+      <c r="G15">
+        <v>513876.63299999997</v>
+      </c>
+      <c r="H15">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>13.17</v>
+      </c>
+      <c r="C16">
+        <v>13.14</v>
+      </c>
+      <c r="D16">
+        <v>13.19</v>
+      </c>
+      <c r="E16">
+        <v>911755.46900000004</v>
+      </c>
+      <c r="F16">
+        <v>0.41</v>
+      </c>
+      <c r="G16">
+        <v>611121.48899999994</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>13.55</v>
+      </c>
+      <c r="C17">
+        <v>13.53</v>
+      </c>
+      <c r="D17">
+        <v>13.59</v>
+      </c>
+      <c r="E17">
+        <v>2537035.9040000001</v>
+      </c>
+      <c r="F17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1610363.716</v>
+      </c>
+      <c r="H17">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>13.65</v>
+      </c>
+      <c r="C18">
+        <v>13.62</v>
+      </c>
+      <c r="D18">
+        <v>13.68</v>
+      </c>
+      <c r="E18">
+        <v>752189.12399999995</v>
+      </c>
+      <c r="F18">
+        <v>0.34</v>
+      </c>
+      <c r="G18">
+        <v>452580.44199999998</v>
+      </c>
+      <c r="H18">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>13.79</v>
+      </c>
+      <c r="C19">
+        <v>13.75</v>
+      </c>
+      <c r="D19">
+        <v>13.83</v>
+      </c>
+      <c r="E19">
+        <v>5878186.3190000001</v>
+      </c>
+      <c r="F19">
+        <v>2.64</v>
+      </c>
+      <c r="G19">
+        <v>3490403.6359999999</v>
+      </c>
+      <c r="H19">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>14.08</v>
+      </c>
+      <c r="C20">
+        <v>14.04</v>
+      </c>
+      <c r="D20">
+        <v>14.14</v>
+      </c>
+      <c r="E20">
+        <v>4262361.4330000002</v>
+      </c>
+      <c r="F20">
+        <v>1.91</v>
+      </c>
+      <c r="G20">
+        <v>2069907.0630000001</v>
+      </c>
+      <c r="H20">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>14.25</v>
+      </c>
+      <c r="C21">
+        <v>14.2</v>
+      </c>
+      <c r="D21">
+        <v>14.3</v>
+      </c>
+      <c r="E21">
+        <v>13996050.834000001</v>
+      </c>
+      <c r="F21">
+        <v>6.29</v>
+      </c>
+      <c r="G21">
+        <v>8913601.8890000004</v>
+      </c>
+      <c r="H21">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>14.51</v>
+      </c>
+      <c r="C22">
+        <v>14.49</v>
+      </c>
+      <c r="D22">
+        <v>14.55</v>
+      </c>
+      <c r="E22">
+        <v>304079.79800000001</v>
+      </c>
+      <c r="F22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G22">
+        <v>180340.21599999999</v>
+      </c>
+      <c r="H22">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>14.69</v>
+      </c>
+      <c r="C23">
+        <v>14.66</v>
+      </c>
+      <c r="D23">
+        <v>14.72</v>
+      </c>
+      <c r="E23">
+        <v>1137603.2960000001</v>
+      </c>
+      <c r="F23">
+        <v>0.51</v>
+      </c>
+      <c r="G23">
+        <v>699307.98600000003</v>
+      </c>
+      <c r="H23">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>15.1</v>
+      </c>
+      <c r="C24">
+        <v>15.07</v>
+      </c>
+      <c r="D24">
+        <v>15.11</v>
+      </c>
+      <c r="E24">
+        <v>385948.39899999998</v>
+      </c>
+      <c r="F24">
+        <v>0.17</v>
+      </c>
+      <c r="G24">
+        <v>258626.83600000001</v>
+      </c>
+      <c r="H24">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>15.37</v>
+      </c>
+      <c r="C25">
+        <v>15.34</v>
+      </c>
+      <c r="D25">
+        <v>15.39</v>
+      </c>
+      <c r="E25">
+        <v>500733.40600000002</v>
+      </c>
+      <c r="F25">
+        <v>0.22</v>
+      </c>
+      <c r="G25">
+        <v>319965.38799999998</v>
+      </c>
+      <c r="H25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>15.5</v>
+      </c>
+      <c r="C26">
+        <v>15.46</v>
+      </c>
+      <c r="D26">
+        <v>15.56</v>
+      </c>
+      <c r="E26">
+        <v>42590337.18</v>
+      </c>
+      <c r="F26">
+        <v>19.13</v>
+      </c>
+      <c r="G26">
+        <v>25723361.107000001</v>
+      </c>
+      <c r="H26">
+        <v>25.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>15.63</v>
+      </c>
+      <c r="C27">
+        <v>15.58</v>
+      </c>
+      <c r="D27">
+        <v>15.67</v>
+      </c>
+      <c r="E27">
+        <v>8222808.585</v>
+      </c>
+      <c r="F27">
+        <v>3.69</v>
+      </c>
+      <c r="G27">
+        <v>5011175.0369999995</v>
+      </c>
+      <c r="H27">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>15.88</v>
+      </c>
+      <c r="C28">
+        <v>15.85</v>
+      </c>
+      <c r="D28">
+        <v>15.92</v>
+      </c>
+      <c r="E28">
+        <v>1668114.5390000001</v>
+      </c>
+      <c r="F28">
+        <v>0.75</v>
+      </c>
+      <c r="G28">
+        <v>1143203.9339999999</v>
+      </c>
+      <c r="H28">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>16.7</v>
+      </c>
+      <c r="C29">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="D29">
+        <v>16.75</v>
+      </c>
+      <c r="E29">
+        <v>8305145.9029999999</v>
+      </c>
+      <c r="F29">
+        <v>3.73</v>
+      </c>
+      <c r="G29">
+        <v>4229449.5</v>
+      </c>
+      <c r="H29">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>16.88</v>
+      </c>
+      <c r="C30">
+        <v>16.8</v>
+      </c>
+      <c r="D30">
+        <v>16.93</v>
+      </c>
+      <c r="E30">
+        <v>78443905.171000004</v>
+      </c>
+      <c r="F30">
+        <v>35.24</v>
+      </c>
+      <c r="G30">
+        <v>31047840.956</v>
+      </c>
+      <c r="H30">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>17.57</v>
+      </c>
+      <c r="C31">
+        <v>17.54</v>
+      </c>
+      <c r="D31">
+        <v>17.59</v>
+      </c>
+      <c r="E31">
+        <v>166588.94399999999</v>
+      </c>
+      <c r="F31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G31">
+        <v>92857.334000000003</v>
+      </c>
+      <c r="H31">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>17.75</v>
+      </c>
+      <c r="C32">
+        <v>17.72</v>
+      </c>
+      <c r="D32">
+        <v>17.77</v>
+      </c>
+      <c r="E32">
+        <v>145866.334</v>
+      </c>
+      <c r="F32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G32">
+        <v>92800.835999999996</v>
+      </c>
+      <c r="H32">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>18.03</v>
+      </c>
+      <c r="C33">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D33">
+        <v>18.05</v>
+      </c>
+      <c r="E33">
+        <v>2628822.1129999999</v>
+      </c>
+      <c r="F33">
+        <v>1.18</v>
+      </c>
+      <c r="G33">
+        <v>1514084.0319999999</v>
+      </c>
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C34">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D34">
+        <v>19.14</v>
+      </c>
+      <c r="E34">
+        <v>3477003.7609999999</v>
+      </c>
+      <c r="F34">
+        <v>1.56</v>
+      </c>
+      <c r="G34">
+        <v>2100439.3050000002</v>
+      </c>
+      <c r="H34">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>20.9</v>
+      </c>
+      <c r="C35">
+        <v>20.89</v>
+      </c>
+      <c r="D35">
+        <v>20.95</v>
+      </c>
+      <c r="E35">
+        <v>307358.87300000002</v>
+      </c>
+      <c r="F35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G35">
+        <v>135577.976</v>
+      </c>
+      <c r="H35">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>22.11</v>
+      </c>
+      <c r="C36">
+        <v>22.09</v>
+      </c>
+      <c r="D36">
+        <v>22.16</v>
+      </c>
+      <c r="E36">
+        <v>522063.967</v>
+      </c>
+      <c r="F36">
+        <v>0.23</v>
+      </c>
+      <c r="G36">
+        <v>209064.02900000001</v>
+      </c>
+      <c r="H36">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>22.82</v>
+      </c>
+      <c r="C37">
+        <v>22.79</v>
+      </c>
+      <c r="D37">
+        <v>22.86</v>
+      </c>
+      <c r="E37">
+        <v>7847244.0889999997</v>
+      </c>
+      <c r="F37">
+        <v>3.53</v>
+      </c>
+      <c r="G37">
+        <v>4702457.216</v>
+      </c>
+      <c r="H37">
+        <v>4.6500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -3480,6 +7120,1032 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD0A192-FA1B-4644-9C0D-612057A17C97}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5.35</v>
+      </c>
+      <c r="C6">
+        <v>5.25</v>
+      </c>
+      <c r="D6">
+        <v>5.38</v>
+      </c>
+      <c r="E6">
+        <v>268710.60600000003</v>
+      </c>
+      <c r="F6">
+        <v>0.15</v>
+      </c>
+      <c r="G6">
+        <v>61987.690999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.97</v>
+      </c>
+      <c r="C7">
+        <v>5.89</v>
+      </c>
+      <c r="D7">
+        <v>6.03</v>
+      </c>
+      <c r="E7">
+        <v>519818.88500000001</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>91439.45</v>
+      </c>
+      <c r="H7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.73</v>
+      </c>
+      <c r="C8">
+        <v>6.65</v>
+      </c>
+      <c r="D8">
+        <v>6.91</v>
+      </c>
+      <c r="E8">
+        <v>3419298.9139999999</v>
+      </c>
+      <c r="F8">
+        <v>1.95</v>
+      </c>
+      <c r="G8">
+        <v>404041.97600000002</v>
+      </c>
+      <c r="H8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>7.32</v>
+      </c>
+      <c r="C9">
+        <v>7.25</v>
+      </c>
+      <c r="D9">
+        <v>7.43</v>
+      </c>
+      <c r="E9">
+        <v>1208366.73</v>
+      </c>
+      <c r="F9">
+        <v>0.69</v>
+      </c>
+      <c r="G9">
+        <v>208184.08900000001</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10.9</v>
+      </c>
+      <c r="C10">
+        <v>10.88</v>
+      </c>
+      <c r="D10">
+        <v>10.95</v>
+      </c>
+      <c r="E10">
+        <v>904178.43299999996</v>
+      </c>
+      <c r="F10">
+        <v>0.52</v>
+      </c>
+      <c r="G10">
+        <v>459955.74800000002</v>
+      </c>
+      <c r="H10">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11.04</v>
+      </c>
+      <c r="C11">
+        <v>10.99</v>
+      </c>
+      <c r="D11">
+        <v>11.04</v>
+      </c>
+      <c r="E11">
+        <v>1232326.0190000001</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>886970.17799999996</v>
+      </c>
+      <c r="H11">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11.37</v>
+      </c>
+      <c r="C12">
+        <v>11.31</v>
+      </c>
+      <c r="D12">
+        <v>11.42</v>
+      </c>
+      <c r="E12">
+        <v>3668529.8130000001</v>
+      </c>
+      <c r="F12">
+        <v>2.1</v>
+      </c>
+      <c r="G12">
+        <v>1433913.588</v>
+      </c>
+      <c r="H12">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11.46</v>
+      </c>
+      <c r="C13">
+        <v>11.43</v>
+      </c>
+      <c r="D13">
+        <v>11.49</v>
+      </c>
+      <c r="E13">
+        <v>1210423.264</v>
+      </c>
+      <c r="F13">
+        <v>0.69</v>
+      </c>
+      <c r="G13">
+        <v>661688.89399999997</v>
+      </c>
+      <c r="H13">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12.05</v>
+      </c>
+      <c r="C14">
+        <v>12.02</v>
+      </c>
+      <c r="D14">
+        <v>12.08</v>
+      </c>
+      <c r="E14">
+        <v>561825.31000000006</v>
+      </c>
+      <c r="F14">
+        <v>0.32</v>
+      </c>
+      <c r="G14">
+        <v>285477.11900000001</v>
+      </c>
+      <c r="H14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>12.2</v>
+      </c>
+      <c r="C15">
+        <v>12.17</v>
+      </c>
+      <c r="D15">
+        <v>12.24</v>
+      </c>
+      <c r="E15">
+        <v>4445943.1749999998</v>
+      </c>
+      <c r="F15">
+        <v>2.54</v>
+      </c>
+      <c r="G15">
+        <v>2264053.2519999999</v>
+      </c>
+      <c r="H15">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>13.06</v>
+      </c>
+      <c r="C16">
+        <v>13.03</v>
+      </c>
+      <c r="D16">
+        <v>13.08</v>
+      </c>
+      <c r="E16">
+        <v>554061.69299999997</v>
+      </c>
+      <c r="F16">
+        <v>0.32</v>
+      </c>
+      <c r="G16">
+        <v>324421.59299999999</v>
+      </c>
+      <c r="H16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>13.17</v>
+      </c>
+      <c r="C17">
+        <v>13.13</v>
+      </c>
+      <c r="D17">
+        <v>13.19</v>
+      </c>
+      <c r="E17">
+        <v>1035112.455</v>
+      </c>
+      <c r="F17">
+        <v>0.59</v>
+      </c>
+      <c r="G17">
+        <v>547950.22600000002</v>
+      </c>
+      <c r="H17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>13.26</v>
+      </c>
+      <c r="C18">
+        <v>13.23</v>
+      </c>
+      <c r="D18">
+        <v>13.29</v>
+      </c>
+      <c r="E18">
+        <v>347410.62199999997</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>207866.98199999999</v>
+      </c>
+      <c r="H18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>13.51</v>
+      </c>
+      <c r="C19">
+        <v>13.47</v>
+      </c>
+      <c r="D19">
+        <v>13.53</v>
+      </c>
+      <c r="E19">
+        <v>1482805.095</v>
+      </c>
+      <c r="F19">
+        <v>0.85</v>
+      </c>
+      <c r="G19">
+        <v>639446.37899999996</v>
+      </c>
+      <c r="H19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>13.55</v>
+      </c>
+      <c r="C20">
+        <v>13.54</v>
+      </c>
+      <c r="D20">
+        <v>13.57</v>
+      </c>
+      <c r="E20">
+        <v>902099.27</v>
+      </c>
+      <c r="F20">
+        <v>0.52</v>
+      </c>
+      <c r="G20">
+        <v>685039.02</v>
+      </c>
+      <c r="H20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>13.66</v>
+      </c>
+      <c r="C21">
+        <v>13.61</v>
+      </c>
+      <c r="D21">
+        <v>13.69</v>
+      </c>
+      <c r="E21">
+        <v>1977230.8359999999</v>
+      </c>
+      <c r="F21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G21">
+        <v>736264.277</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>13.79</v>
+      </c>
+      <c r="C22">
+        <v>13.75</v>
+      </c>
+      <c r="D22">
+        <v>13.83</v>
+      </c>
+      <c r="E22">
+        <v>3082994.105</v>
+      </c>
+      <c r="F22">
+        <v>1.76</v>
+      </c>
+      <c r="G22">
+        <v>1662766.027</v>
+      </c>
+      <c r="H22">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>14.08</v>
+      </c>
+      <c r="C23">
+        <v>14.04</v>
+      </c>
+      <c r="D23">
+        <v>14.13</v>
+      </c>
+      <c r="E23">
+        <v>2003303.375</v>
+      </c>
+      <c r="F23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G23">
+        <v>1029645.657</v>
+      </c>
+      <c r="H23">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>14.25</v>
+      </c>
+      <c r="C24">
+        <v>14.21</v>
+      </c>
+      <c r="D24">
+        <v>14.28</v>
+      </c>
+      <c r="E24">
+        <v>6655989.7560000001</v>
+      </c>
+      <c r="F24">
+        <v>3.81</v>
+      </c>
+      <c r="G24">
+        <v>4347661.3499999996</v>
+      </c>
+      <c r="H24">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>14.52</v>
+      </c>
+      <c r="C25">
+        <v>14.5</v>
+      </c>
+      <c r="D25">
+        <v>14.54</v>
+      </c>
+      <c r="E25">
+        <v>152511.04000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.09</v>
+      </c>
+      <c r="G25">
+        <v>110089.746</v>
+      </c>
+      <c r="H25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>14.68</v>
+      </c>
+      <c r="C26">
+        <v>14.66</v>
+      </c>
+      <c r="D26">
+        <v>14.72</v>
+      </c>
+      <c r="E26">
+        <v>547564.18000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.31</v>
+      </c>
+      <c r="G26">
+        <v>313230.473</v>
+      </c>
+      <c r="H26">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>15.09</v>
+      </c>
+      <c r="C27">
+        <v>15.07</v>
+      </c>
+      <c r="D27">
+        <v>15.13</v>
+      </c>
+      <c r="E27">
+        <v>592060.53599999996</v>
+      </c>
+      <c r="F27">
+        <v>0.34</v>
+      </c>
+      <c r="G27">
+        <v>331082.022</v>
+      </c>
+      <c r="H27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>15.37</v>
+      </c>
+      <c r="C28">
+        <v>15.34</v>
+      </c>
+      <c r="D28">
+        <v>15.39</v>
+      </c>
+      <c r="E28">
+        <v>557063.16899999999</v>
+      </c>
+      <c r="F28">
+        <v>0.32</v>
+      </c>
+      <c r="G28">
+        <v>350732.51699999999</v>
+      </c>
+      <c r="H28">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>15.5</v>
+      </c>
+      <c r="C29">
+        <v>15.45</v>
+      </c>
+      <c r="D29">
+        <v>15.56</v>
+      </c>
+      <c r="E29">
+        <v>41130367.700999998</v>
+      </c>
+      <c r="F29">
+        <v>23.52</v>
+      </c>
+      <c r="G29">
+        <v>24132393.853999998</v>
+      </c>
+      <c r="H29">
+        <v>29.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>15.62</v>
+      </c>
+      <c r="C30">
+        <v>15.6</v>
+      </c>
+      <c r="D30">
+        <v>15.66</v>
+      </c>
+      <c r="E30">
+        <v>3428689.085</v>
+      </c>
+      <c r="F30">
+        <v>1.96</v>
+      </c>
+      <c r="G30">
+        <v>1906067.1410000001</v>
+      </c>
+      <c r="H30">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>15.88</v>
+      </c>
+      <c r="C31">
+        <v>15.86</v>
+      </c>
+      <c r="D31">
+        <v>15.92</v>
+      </c>
+      <c r="E31">
+        <v>761160.80299999996</v>
+      </c>
+      <c r="F31">
+        <v>0.44</v>
+      </c>
+      <c r="G31">
+        <v>498830.12099999998</v>
+      </c>
+      <c r="H31">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C32">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="D32">
+        <v>16.75</v>
+      </c>
+      <c r="E32">
+        <v>3310413.2850000001</v>
+      </c>
+      <c r="F32">
+        <v>1.89</v>
+      </c>
+      <c r="G32">
+        <v>1787277.5519999999</v>
+      </c>
+      <c r="H32">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>16.88</v>
+      </c>
+      <c r="C33">
+        <v>16.8</v>
+      </c>
+      <c r="D33">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E33">
+        <v>68499449.650999993</v>
+      </c>
+      <c r="F33">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="G33">
+        <v>23757136.462000001</v>
+      </c>
+      <c r="H33">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="C34">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D34">
+        <v>18.05</v>
+      </c>
+      <c r="E34">
+        <v>420956.87300000002</v>
+      </c>
+      <c r="F34">
+        <v>0.24</v>
+      </c>
+      <c r="G34">
+        <v>268011.23200000002</v>
+      </c>
+      <c r="H34">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C35">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D35">
+        <v>19.13</v>
+      </c>
+      <c r="E35">
+        <v>5069270.8020000001</v>
+      </c>
+      <c r="F35">
+        <v>2.9</v>
+      </c>
+      <c r="G35">
+        <v>2860633.1129999999</v>
+      </c>
+      <c r="H35">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>20.9</v>
+      </c>
+      <c r="C36">
+        <v>20.88</v>
+      </c>
+      <c r="D36">
+        <v>20.92</v>
+      </c>
+      <c r="E36">
+        <v>262466.85600000003</v>
+      </c>
+      <c r="F36">
+        <v>0.15</v>
+      </c>
+      <c r="G36">
+        <v>190820.321</v>
+      </c>
+      <c r="H36">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>22.11</v>
+      </c>
+      <c r="C37">
+        <v>22.08</v>
+      </c>
+      <c r="D37">
+        <v>22.15</v>
+      </c>
+      <c r="E37">
+        <v>1859365.5109999999</v>
+      </c>
+      <c r="F37">
+        <v>1.06</v>
+      </c>
+      <c r="G37">
+        <v>953211.12699999998</v>
+      </c>
+      <c r="H37">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>22.82</v>
+      </c>
+      <c r="C38">
+        <v>22.79</v>
+      </c>
+      <c r="D38">
+        <v>22.87</v>
+      </c>
+      <c r="E38">
+        <v>12836348.492000001</v>
+      </c>
+      <c r="F38">
+        <v>7.34</v>
+      </c>
+      <c r="G38">
+        <v>7491960.0630000001</v>
+      </c>
+      <c r="H38">
+        <v>9.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254AF40A-2826-4C59-86F4-1BC7B1D504B4}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11.04</v>
+      </c>
+      <c r="C6">
+        <v>10.99</v>
+      </c>
+      <c r="D6">
+        <v>11.04</v>
+      </c>
+      <c r="E6">
+        <v>97479.099000000002</v>
+      </c>
+      <c r="F6">
+        <v>23.79</v>
+      </c>
+      <c r="G6">
+        <v>47098.41</v>
+      </c>
+      <c r="H6">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>15.1</v>
+      </c>
+      <c r="C7">
+        <v>15.07</v>
+      </c>
+      <c r="D7">
+        <v>15.15</v>
+      </c>
+      <c r="E7">
+        <v>312295.61</v>
+      </c>
+      <c r="F7">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="G7">
+        <v>145307.177</v>
+      </c>
+      <c r="H7">
+        <v>75.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2DF34-7AC7-4202-B14E-291A7387A1F7}">
   <dimension ref="A1:H16"/>

--- a/Second_integration.xlsx
+++ b/Second_integration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AFF64-6BBA-4BEC-8766-72A48118AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064278E-0607-4338-9975-1632959490BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="20" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="20" xr2:uid="{987AE631-EC5F-4A19-B222-F0BA16032240}"/>
   </bookViews>
   <sheets>
     <sheet name="SPMEn57" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Number of detected peaks: 15</t>
-  </si>
-  <si>
-    <t>Apex RT</t>
   </si>
   <si>
     <t>Start RT</t>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>RT: 20.77 - 25.69</t>
+  </si>
+  <si>
+    <t>Apex_RT</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,25 +632,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B9F2F7-E16B-42F5-B95B-0F8FC74D67CC}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,40 +1065,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE5A21-78CF-4677-9451-6E3B94283A5F}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1695,40 +1695,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2157,7 +2157,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2500,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5517029-7CA3-4532-A0D5-C2A461DD4769}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2513,40 +2513,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3391,7 +3391,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3403,40 +3403,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3501,7 +3501,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3513,40 +3513,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3896,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864F6F15-7644-4E4E-95DC-8E683CEE2040}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3909,40 +3909,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4422,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB521D2-C14A-4596-9F8F-89A3CB671450}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4435,40 +4435,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -5234,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043E5EC-6D04-4409-A11A-E7C5CE623C10}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5247,40 +5247,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -6072,8 +6072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436F10D2-C384-4C49-B3F5-D869FE72F96F}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6085,40 +6085,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -6963,7 +6963,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -7124,8 +7124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD0A192-FA1B-4644-9C0D-612057A17C97}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -8041,7 +8041,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8053,40 +8053,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -8151,7 +8151,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8163,40 +8163,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -8495,7 +8495,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8507,40 +8507,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -8865,7 +8865,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8877,40 +8877,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -9131,7 +9131,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9143,40 +9143,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -9267,7 +9267,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9279,40 +9279,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -9376,8 +9376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7B9D2F-8AE5-4F3F-8F70-31756A76B4B9}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9389,40 +9389,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -10292,8 +10292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816CF05-98E6-45CD-961D-DCDA3E8991C1}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10305,40 +10305,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
